--- a/suppxls/Scen_Par-RPS_CO2p_GasP_Nuc.xlsx
+++ b/suppxls/Scen_Par-RPS_CO2p_GasP_Nuc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\DemoS_ADV_Stuttgart061118\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E8D303-0248-47A9-9ABE-25295893E00A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D98C6A-AEF5-48F4-AFBA-1FF8AC92A740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E4274E74-7A86-476E-8D8F-2DC29368AA80}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{E4274E74-7A86-476E-8D8F-2DC29368AA80}"/>
   </bookViews>
   <sheets>
     <sheet name="CaseDesc" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -177,10 +180,10 @@
     <t>For Scenario Description</t>
   </si>
   <si>
-    <t>~InputCell: 1,3,7,11,35</t>
+    <t>START</t>
   </si>
   <si>
-    <t>START</t>
+    <t>~InputCell: 1-20</t>
   </si>
 </sst>
 </file>
@@ -1757,7 +1760,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0780C00F-4708-452C-A1D7-80FEB354B029}">
   <dimension ref="A1:AA79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1779,7 +1784,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -2988,7 +2993,7 @@
         <v>33</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K32" t="s">
         <v>40</v>

--- a/suppxls/Scen_Par-RPS_CO2p_GasP_Nuc.xlsx
+++ b/suppxls/Scen_Par-RPS_CO2p_GasP_Nuc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\suppxls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NewVEDA\Veda\Veda_models\Model_Demo_Adv_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D98C6A-AEF5-48F4-AFBA-1FF8AC92A740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372B172A-C4CE-4FC2-93F5-A4BDC0092FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{E4274E74-7A86-476E-8D8F-2DC29368AA80}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E4274E74-7A86-476E-8D8F-2DC29368AA80}"/>
   </bookViews>
   <sheets>
     <sheet name="CaseDesc" sheetId="2" r:id="rId1"/>
@@ -183,7 +183,7 @@
     <t>START</t>
   </si>
   <si>
-    <t>~InputCell: 1-20</t>
+    <t>~InputCell: 1-8</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
@@ -530,7 +530,7 @@
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="C3" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X8&amp;'RPS-CO2p_GasP-Nuc'!Y8&amp;'RPS-CO2p_GasP-Nuc'!Z8&amp;'RPS-CO2p_GasP-Nuc'!AA8</f>
-        <v>RPS-0.CO2p-0.GasP-1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.05.GasP-1.Nuc-Y.</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="C4" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X9&amp;'RPS-CO2p_GasP-Nuc'!Y9&amp;'RPS-CO2p_GasP-Nuc'!Z9&amp;'RPS-CO2p_GasP-Nuc'!AA9</f>
-        <v>RPS-0.25.CO2p-0.GasP-1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.1.GasP-1.Nuc-Y.</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="C5" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X10&amp;'RPS-CO2p_GasP-Nuc'!Y10&amp;'RPS-CO2p_GasP-Nuc'!Z10&amp;'RPS-CO2p_GasP-Nuc'!AA10</f>
-        <v>RPS-0.35.CO2p-0.GasP-1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.15.GasP-1.Nuc-Y.</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="C6" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X11&amp;'RPS-CO2p_GasP-Nuc'!Y11&amp;'RPS-CO2p_GasP-Nuc'!Z11&amp;'RPS-CO2p_GasP-Nuc'!AA11</f>
-        <v>RPS-0.45.CO2p-0.GasP-1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.2.GasP-1.Nuc-Y.</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="C7" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X12&amp;'RPS-CO2p_GasP-Nuc'!Y12&amp;'RPS-CO2p_GasP-Nuc'!Z12&amp;'RPS-CO2p_GasP-Nuc'!AA12</f>
-        <v>RPS-0.CO2p-0.1.GasP-1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.25.GasP-1.Nuc-Y.</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C8" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X13&amp;'RPS-CO2p_GasP-Nuc'!Y13&amp;'RPS-CO2p_GasP-Nuc'!Z13&amp;'RPS-CO2p_GasP-Nuc'!AA13</f>
-        <v>RPS-0.25.CO2p-0.1.GasP-1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.3.GasP-1.Nuc-Y.</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C9" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X14&amp;'RPS-CO2p_GasP-Nuc'!Y14&amp;'RPS-CO2p_GasP-Nuc'!Z14&amp;'RPS-CO2p_GasP-Nuc'!AA14</f>
-        <v>RPS-0.35.CO2p-0.1.GasP-1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.35.GasP-1.Nuc-Y.</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="C10" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X15&amp;'RPS-CO2p_GasP-Nuc'!Y15&amp;'RPS-CO2p_GasP-Nuc'!Z15&amp;'RPS-CO2p_GasP-Nuc'!AA15</f>
-        <v>RPS-0.45.CO2p-0.1.GasP-1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.4.GasP-1.Nuc-Y.</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="C12" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X17&amp;'RPS-CO2p_GasP-Nuc'!Y17&amp;'RPS-CO2p_GasP-Nuc'!Z17&amp;'RPS-CO2p_GasP-Nuc'!AA17</f>
-        <v>RPS-0.25.CO2p-0.2.GasP-1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.2.GasP-1.Nuc-Y.</v>
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="C13" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X18&amp;'RPS-CO2p_GasP-Nuc'!Y18&amp;'RPS-CO2p_GasP-Nuc'!Z18&amp;'RPS-CO2p_GasP-Nuc'!AA18</f>
-        <v>RPS-0.35.CO2p-0.2.GasP-1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.2.GasP-1.Nuc-Y.</v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C14" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X19&amp;'RPS-CO2p_GasP-Nuc'!Y19&amp;'RPS-CO2p_GasP-Nuc'!Z19&amp;'RPS-CO2p_GasP-Nuc'!AA19</f>
-        <v>RPS-0.45.CO2p-0.2.GasP-1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.2.GasP-1.Nuc-Y.</v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="C15" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X20&amp;'RPS-CO2p_GasP-Nuc'!Y20&amp;'RPS-CO2p_GasP-Nuc'!Z20&amp;'RPS-CO2p_GasP-Nuc'!AA20</f>
-        <v>RPS-0.CO2p-0.GasP-0.9.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.05.GasP-0.9.Nuc-Y.</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C16" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X21&amp;'RPS-CO2p_GasP-Nuc'!Y21&amp;'RPS-CO2p_GasP-Nuc'!Z21&amp;'RPS-CO2p_GasP-Nuc'!AA21</f>
-        <v>RPS-0.25.CO2p-0.GasP-0.9.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.1.GasP-0.9.Nuc-Y.</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="C17" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X22&amp;'RPS-CO2p_GasP-Nuc'!Y22&amp;'RPS-CO2p_GasP-Nuc'!Z22&amp;'RPS-CO2p_GasP-Nuc'!AA22</f>
-        <v>RPS-0.35.CO2p-0.GasP-0.9.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.15.GasP-0.9.Nuc-Y.</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="C18" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X23&amp;'RPS-CO2p_GasP-Nuc'!Y23&amp;'RPS-CO2p_GasP-Nuc'!Z23&amp;'RPS-CO2p_GasP-Nuc'!AA23</f>
-        <v>RPS-0.45.CO2p-0.GasP-0.9.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.2.GasP-0.9.Nuc-Y.</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C19" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X24&amp;'RPS-CO2p_GasP-Nuc'!Y24&amp;'RPS-CO2p_GasP-Nuc'!Z24&amp;'RPS-CO2p_GasP-Nuc'!AA24</f>
-        <v>RPS-0.CO2p-0.1.GasP-0.9.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.25.GasP-0.9.Nuc-Y.</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="C20" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X25&amp;'RPS-CO2p_GasP-Nuc'!Y25&amp;'RPS-CO2p_GasP-Nuc'!Z25&amp;'RPS-CO2p_GasP-Nuc'!AA25</f>
-        <v>RPS-0.25.CO2p-0.1.GasP-0.9.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.3.GasP-0.9.Nuc-Y.</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="C21" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X26&amp;'RPS-CO2p_GasP-Nuc'!Y26&amp;'RPS-CO2p_GasP-Nuc'!Z26&amp;'RPS-CO2p_GasP-Nuc'!AA26</f>
-        <v>RPS-0.35.CO2p-0.1.GasP-0.9.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.35.GasP-0.9.Nuc-Y.</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="C22" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X27&amp;'RPS-CO2p_GasP-Nuc'!Y27&amp;'RPS-CO2p_GasP-Nuc'!Z27&amp;'RPS-CO2p_GasP-Nuc'!AA27</f>
-        <v>RPS-0.45.CO2p-0.1.GasP-0.9.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.4.GasP-0.9.Nuc-Y.</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="C24" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X29&amp;'RPS-CO2p_GasP-Nuc'!Y29&amp;'RPS-CO2p_GasP-Nuc'!Z29&amp;'RPS-CO2p_GasP-Nuc'!AA29</f>
-        <v>RPS-0.25.CO2p-0.2.GasP-0.9.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.2.GasP-0.9.Nuc-Y.</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="C25" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X30&amp;'RPS-CO2p_GasP-Nuc'!Y30&amp;'RPS-CO2p_GasP-Nuc'!Z30&amp;'RPS-CO2p_GasP-Nuc'!AA30</f>
-        <v>RPS-0.35.CO2p-0.2.GasP-0.9.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.2.GasP-0.9.Nuc-Y.</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="C26" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X31&amp;'RPS-CO2p_GasP-Nuc'!Y31&amp;'RPS-CO2p_GasP-Nuc'!Z31&amp;'RPS-CO2p_GasP-Nuc'!AA31</f>
-        <v>RPS-0.45.CO2p-0.2.GasP-0.9.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.2.GasP-0.9.Nuc-Y.</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C27" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X32&amp;'RPS-CO2p_GasP-Nuc'!Y32&amp;'RPS-CO2p_GasP-Nuc'!Z32&amp;'RPS-CO2p_GasP-Nuc'!AA32</f>
-        <v>RPS-0.CO2p-0.GasP-1.1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.05.GasP-1.1.Nuc-Y.</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C28" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X33&amp;'RPS-CO2p_GasP-Nuc'!Y33&amp;'RPS-CO2p_GasP-Nuc'!Z33&amp;'RPS-CO2p_GasP-Nuc'!AA33</f>
-        <v>RPS-0.25.CO2p-0.GasP-1.1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.1.GasP-1.1.Nuc-Y.</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="C29" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X34&amp;'RPS-CO2p_GasP-Nuc'!Y34&amp;'RPS-CO2p_GasP-Nuc'!Z34&amp;'RPS-CO2p_GasP-Nuc'!AA34</f>
-        <v>RPS-0.35.CO2p-0.GasP-1.1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.15.GasP-1.1.Nuc-Y.</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="C30" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X35&amp;'RPS-CO2p_GasP-Nuc'!Y35&amp;'RPS-CO2p_GasP-Nuc'!Z35&amp;'RPS-CO2p_GasP-Nuc'!AA35</f>
-        <v>RPS-0.45.CO2p-0.GasP-1.1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.2.GasP-1.1.Nuc-Y.</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="C31" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X36&amp;'RPS-CO2p_GasP-Nuc'!Y36&amp;'RPS-CO2p_GasP-Nuc'!Z36&amp;'RPS-CO2p_GasP-Nuc'!AA36</f>
-        <v>RPS-0.CO2p-0.1.GasP-1.1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.25.GasP-1.1.Nuc-Y.</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="C32" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X37&amp;'RPS-CO2p_GasP-Nuc'!Y37&amp;'RPS-CO2p_GasP-Nuc'!Z37&amp;'RPS-CO2p_GasP-Nuc'!AA37</f>
-        <v>RPS-0.25.CO2p-0.1.GasP-1.1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.3.GasP-1.1.Nuc-Y.</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="C33" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X38&amp;'RPS-CO2p_GasP-Nuc'!Y38&amp;'RPS-CO2p_GasP-Nuc'!Z38&amp;'RPS-CO2p_GasP-Nuc'!AA38</f>
-        <v>RPS-0.35.CO2p-0.1.GasP-1.1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.35.GasP-1.1.Nuc-Y.</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="C34" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X39&amp;'RPS-CO2p_GasP-Nuc'!Y39&amp;'RPS-CO2p_GasP-Nuc'!Z39&amp;'RPS-CO2p_GasP-Nuc'!AA39</f>
-        <v>RPS-0.45.CO2p-0.1.GasP-1.1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.4.GasP-1.1.Nuc-Y.</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C36" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X41&amp;'RPS-CO2p_GasP-Nuc'!Y41&amp;'RPS-CO2p_GasP-Nuc'!Z41&amp;'RPS-CO2p_GasP-Nuc'!AA41</f>
-        <v>RPS-0.25.CO2p-0.2.GasP-1.1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.2.GasP-1.1.Nuc-Y.</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="C37" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X42&amp;'RPS-CO2p_GasP-Nuc'!Y42&amp;'RPS-CO2p_GasP-Nuc'!Z42&amp;'RPS-CO2p_GasP-Nuc'!AA42</f>
-        <v>RPS-0.35.CO2p-0.2.GasP-1.1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.2.GasP-1.1.Nuc-Y.</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="C38" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X43&amp;'RPS-CO2p_GasP-Nuc'!Y43&amp;'RPS-CO2p_GasP-Nuc'!Z43&amp;'RPS-CO2p_GasP-Nuc'!AA43</f>
-        <v>RPS-0.45.CO2p-0.2.GasP-1.1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.2.GasP-1.1.Nuc-Y.</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="C39" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X44&amp;'RPS-CO2p_GasP-Nuc'!Y44&amp;'RPS-CO2p_GasP-Nuc'!Z44&amp;'RPS-CO2p_GasP-Nuc'!AA44</f>
-        <v>RPS-0.CO2p-0.GasP-1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.05.GasP-1.Nuc-N.</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="C40" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X45&amp;'RPS-CO2p_GasP-Nuc'!Y45&amp;'RPS-CO2p_GasP-Nuc'!Z45&amp;'RPS-CO2p_GasP-Nuc'!AA45</f>
-        <v>RPS-0.25.CO2p-0.GasP-1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.1.GasP-1.Nuc-N.</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="C41" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X46&amp;'RPS-CO2p_GasP-Nuc'!Y46&amp;'RPS-CO2p_GasP-Nuc'!Z46&amp;'RPS-CO2p_GasP-Nuc'!AA46</f>
-        <v>RPS-0.35.CO2p-0.GasP-1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.15.GasP-1.Nuc-N.</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C42" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X47&amp;'RPS-CO2p_GasP-Nuc'!Y47&amp;'RPS-CO2p_GasP-Nuc'!Z47&amp;'RPS-CO2p_GasP-Nuc'!AA47</f>
-        <v>RPS-0.45.CO2p-0.GasP-1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.2.GasP-1.Nuc-N.</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="C43" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X48&amp;'RPS-CO2p_GasP-Nuc'!Y48&amp;'RPS-CO2p_GasP-Nuc'!Z48&amp;'RPS-CO2p_GasP-Nuc'!AA48</f>
-        <v>RPS-0.CO2p-0.1.GasP-1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.25.GasP-1.Nuc-N.</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="C44" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X49&amp;'RPS-CO2p_GasP-Nuc'!Y49&amp;'RPS-CO2p_GasP-Nuc'!Z49&amp;'RPS-CO2p_GasP-Nuc'!AA49</f>
-        <v>RPS-0.25.CO2p-0.1.GasP-1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.3.GasP-1.Nuc-N.</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="C45" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X50&amp;'RPS-CO2p_GasP-Nuc'!Y50&amp;'RPS-CO2p_GasP-Nuc'!Z50&amp;'RPS-CO2p_GasP-Nuc'!AA50</f>
-        <v>RPS-0.35.CO2p-0.1.GasP-1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.35.GasP-1.Nuc-N.</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="C46" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X51&amp;'RPS-CO2p_GasP-Nuc'!Y51&amp;'RPS-CO2p_GasP-Nuc'!Z51&amp;'RPS-CO2p_GasP-Nuc'!AA51</f>
-        <v>RPS-0.45.CO2p-0.1.GasP-1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.4.GasP-1.Nuc-N.</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="C48" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X53&amp;'RPS-CO2p_GasP-Nuc'!Y53&amp;'RPS-CO2p_GasP-Nuc'!Z53&amp;'RPS-CO2p_GasP-Nuc'!AA53</f>
-        <v>RPS-0.25.CO2p-0.2.GasP-1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.2.GasP-1.Nuc-N.</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="C49" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X54&amp;'RPS-CO2p_GasP-Nuc'!Y54&amp;'RPS-CO2p_GasP-Nuc'!Z54&amp;'RPS-CO2p_GasP-Nuc'!AA54</f>
-        <v>RPS-0.35.CO2p-0.2.GasP-1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.2.GasP-1.Nuc-N.</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="C50" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X55&amp;'RPS-CO2p_GasP-Nuc'!Y55&amp;'RPS-CO2p_GasP-Nuc'!Z55&amp;'RPS-CO2p_GasP-Nuc'!AA55</f>
-        <v>RPS-0.45.CO2p-0.2.GasP-1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.2.GasP-1.Nuc-N.</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C51" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X56&amp;'RPS-CO2p_GasP-Nuc'!Y56&amp;'RPS-CO2p_GasP-Nuc'!Z56&amp;'RPS-CO2p_GasP-Nuc'!AA56</f>
-        <v>RPS-0.CO2p-0.GasP-0.9.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.05.GasP-0.9.Nuc-N.</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C52" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X57&amp;'RPS-CO2p_GasP-Nuc'!Y57&amp;'RPS-CO2p_GasP-Nuc'!Z57&amp;'RPS-CO2p_GasP-Nuc'!AA57</f>
-        <v>RPS-0.25.CO2p-0.GasP-0.9.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.1.GasP-0.9.Nuc-N.</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C53" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X58&amp;'RPS-CO2p_GasP-Nuc'!Y58&amp;'RPS-CO2p_GasP-Nuc'!Z58&amp;'RPS-CO2p_GasP-Nuc'!AA58</f>
-        <v>RPS-0.35.CO2p-0.GasP-0.9.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.15.GasP-0.9.Nuc-N.</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="C54" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X59&amp;'RPS-CO2p_GasP-Nuc'!Y59&amp;'RPS-CO2p_GasP-Nuc'!Z59&amp;'RPS-CO2p_GasP-Nuc'!AA59</f>
-        <v>RPS-0.45.CO2p-0.GasP-0.9.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.2.GasP-0.9.Nuc-N.</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="C55" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X60&amp;'RPS-CO2p_GasP-Nuc'!Y60&amp;'RPS-CO2p_GasP-Nuc'!Z60&amp;'RPS-CO2p_GasP-Nuc'!AA60</f>
-        <v>RPS-0.CO2p-0.1.GasP-0.9.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.25.GasP-0.9.Nuc-N.</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="C56" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X61&amp;'RPS-CO2p_GasP-Nuc'!Y61&amp;'RPS-CO2p_GasP-Nuc'!Z61&amp;'RPS-CO2p_GasP-Nuc'!AA61</f>
-        <v>RPS-0.25.CO2p-0.1.GasP-0.9.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.3.GasP-0.9.Nuc-N.</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="C57" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X62&amp;'RPS-CO2p_GasP-Nuc'!Y62&amp;'RPS-CO2p_GasP-Nuc'!Z62&amp;'RPS-CO2p_GasP-Nuc'!AA62</f>
-        <v>RPS-0.35.CO2p-0.1.GasP-0.9.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.35.GasP-0.9.Nuc-N.</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="C58" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X63&amp;'RPS-CO2p_GasP-Nuc'!Y63&amp;'RPS-CO2p_GasP-Nuc'!Z63&amp;'RPS-CO2p_GasP-Nuc'!AA63</f>
-        <v>RPS-0.45.CO2p-0.1.GasP-0.9.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.4.GasP-0.9.Nuc-N.</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="C60" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X65&amp;'RPS-CO2p_GasP-Nuc'!Y65&amp;'RPS-CO2p_GasP-Nuc'!Z65&amp;'RPS-CO2p_GasP-Nuc'!AA65</f>
-        <v>RPS-0.25.CO2p-0.2.GasP-0.9.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.2.GasP-0.9.Nuc-N.</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="C61" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X66&amp;'RPS-CO2p_GasP-Nuc'!Y66&amp;'RPS-CO2p_GasP-Nuc'!Z66&amp;'RPS-CO2p_GasP-Nuc'!AA66</f>
-        <v>RPS-0.35.CO2p-0.2.GasP-0.9.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.2.GasP-0.9.Nuc-N.</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="C62" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X67&amp;'RPS-CO2p_GasP-Nuc'!Y67&amp;'RPS-CO2p_GasP-Nuc'!Z67&amp;'RPS-CO2p_GasP-Nuc'!AA67</f>
-        <v>RPS-0.45.CO2p-0.2.GasP-0.9.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.2.GasP-0.9.Nuc-N.</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="C63" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X68&amp;'RPS-CO2p_GasP-Nuc'!Y68&amp;'RPS-CO2p_GasP-Nuc'!Z68&amp;'RPS-CO2p_GasP-Nuc'!AA68</f>
-        <v>RPS-0.CO2p-0.GasP-1.1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.05.GasP-1.1.Nuc-N.</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="C64" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X69&amp;'RPS-CO2p_GasP-Nuc'!Y69&amp;'RPS-CO2p_GasP-Nuc'!Z69&amp;'RPS-CO2p_GasP-Nuc'!AA69</f>
-        <v>RPS-0.25.CO2p-0.GasP-1.1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.1.GasP-1.1.Nuc-N.</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="C65" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X70&amp;'RPS-CO2p_GasP-Nuc'!Y70&amp;'RPS-CO2p_GasP-Nuc'!Z70&amp;'RPS-CO2p_GasP-Nuc'!AA70</f>
-        <v>RPS-0.35.CO2p-0.GasP-1.1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.15.GasP-1.1.Nuc-N.</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="C66" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X71&amp;'RPS-CO2p_GasP-Nuc'!Y71&amp;'RPS-CO2p_GasP-Nuc'!Z71&amp;'RPS-CO2p_GasP-Nuc'!AA71</f>
-        <v>RPS-0.45.CO2p-0.GasP-1.1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.2.GasP-1.1.Nuc-N.</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="C67" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X72&amp;'RPS-CO2p_GasP-Nuc'!Y72&amp;'RPS-CO2p_GasP-Nuc'!Z72&amp;'RPS-CO2p_GasP-Nuc'!AA72</f>
-        <v>RPS-0.CO2p-0.1.GasP-1.1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.25.GasP-1.1.Nuc-N.</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="C68" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X73&amp;'RPS-CO2p_GasP-Nuc'!Y73&amp;'RPS-CO2p_GasP-Nuc'!Z73&amp;'RPS-CO2p_GasP-Nuc'!AA73</f>
-        <v>RPS-0.25.CO2p-0.1.GasP-1.1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.3.GasP-1.1.Nuc-N.</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="C69" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X74&amp;'RPS-CO2p_GasP-Nuc'!Y74&amp;'RPS-CO2p_GasP-Nuc'!Z74&amp;'RPS-CO2p_GasP-Nuc'!AA74</f>
-        <v>RPS-0.35.CO2p-0.1.GasP-1.1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.35.GasP-1.1.Nuc-N.</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C70" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X75&amp;'RPS-CO2p_GasP-Nuc'!Y75&amp;'RPS-CO2p_GasP-Nuc'!Z75&amp;'RPS-CO2p_GasP-Nuc'!AA75</f>
-        <v>RPS-0.45.CO2p-0.1.GasP-1.1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.4.GasP-1.1.Nuc-N.</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="C72" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X77&amp;'RPS-CO2p_GasP-Nuc'!Y77&amp;'RPS-CO2p_GasP-Nuc'!Z77&amp;'RPS-CO2p_GasP-Nuc'!AA77</f>
-        <v>RPS-0.25.CO2p-0.2.GasP-1.1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.2.GasP-1.1.Nuc-N.</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="C73" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X78&amp;'RPS-CO2p_GasP-Nuc'!Y78&amp;'RPS-CO2p_GasP-Nuc'!Z78&amp;'RPS-CO2p_GasP-Nuc'!AA78</f>
-        <v>RPS-0.35.CO2p-0.2.GasP-1.1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.2.GasP-1.1.Nuc-N.</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="C74" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X79&amp;'RPS-CO2p_GasP-Nuc'!Y79&amp;'RPS-CO2p_GasP-Nuc'!Z79&amp;'RPS-CO2p_GasP-Nuc'!AA79</f>
-        <v>RPS-0.45.CO2p-0.2.GasP-1.1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.2.GasP-1.1.Nuc-N.</v>
       </c>
     </row>
   </sheetData>
@@ -1795,7 +1795,7 @@
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C5" s="11">
         <f>VLOOKUP($A$2,$B$8:$F$198,C6,FALSE)</f>
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="D5" s="11">
         <f t="shared" ref="D5:F5" si="0">VLOOKUP($A$2,$B$8:$F$198,D6,FALSE)</f>
@@ -1861,7 +1861,7 @@
       <c r="H7" s="28"/>
       <c r="L7" t="str">
         <f>IF(C5=0,"DeActivated","~UC_T: UC_COMPRD~2015")</f>
-        <v>~UC_T: UC_COMPRD~2015</v>
+        <v>DeActivated</v>
       </c>
       <c r="X7" s="30" t="s">
         <v>44</v>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="Y8" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D8&amp;"."</f>
-        <v>CO2p-0.</v>
+        <v>CO2p-0.05.</v>
       </c>
       <c r="Z8" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E8&amp;"."</f>
@@ -1942,10 +1942,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="O9" s="8">
         <f>-T9</f>
-        <v>-0.35</v>
+        <v>0</v>
       </c>
       <c r="P9" s="9">
         <f>R39*(1-T9)</f>
@@ -1988,15 +1988,15 @@
       </c>
       <c r="T9" s="10">
         <f>C5</f>
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="X9" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C9&amp;"."</f>
-        <v>RPS-0.25.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y9" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D9&amp;"."</f>
-        <v>CO2p-0.</v>
+        <v>CO2p-0.1.</v>
       </c>
       <c r="Z9" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E9&amp;"."</f>
@@ -2012,10 +2012,10 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2026,11 +2026,11 @@
       <c r="H10" s="28"/>
       <c r="X10" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C10&amp;"."</f>
-        <v>RPS-0.35.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y10" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D10&amp;"."</f>
-        <v>CO2p-0.</v>
+        <v>CO2p-0.15.</v>
       </c>
       <c r="Z10" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E10&amp;"."</f>
@@ -2046,10 +2046,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2060,11 +2060,11 @@
       <c r="H11" s="28"/>
       <c r="X11" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C11&amp;"."</f>
-        <v>RPS-0.45.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y11" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D11&amp;"."</f>
-        <v>CO2p-0.</v>
+        <v>CO2p-0.2.</v>
       </c>
       <c r="Z11" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E11&amp;"."</f>
@@ -2080,11 +2080,10 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <f>C8</f>
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2099,7 +2098,7 @@
       </c>
       <c r="Y12" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D12&amp;"."</f>
-        <v>CO2p-0.1.</v>
+        <v>CO2p-0.25.</v>
       </c>
       <c r="Z12" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E12&amp;"."</f>
@@ -2115,11 +2114,10 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:C76" si="1">C9</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2144,11 +2142,11 @@
       <c r="T13" s="26"/>
       <c r="X13" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C13&amp;"."</f>
-        <v>RPS-0.25.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y13" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D13&amp;"."</f>
-        <v>CO2p-0.1.</v>
+        <v>CO2p-0.3.</v>
       </c>
       <c r="Z13" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E13&amp;"."</f>
@@ -2164,11 +2162,10 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>0.35</v>
-      </c>
-      <c r="D14">
-        <v>0.1</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2183,11 +2180,11 @@
       <c r="P14" s="15"/>
       <c r="X14" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C14&amp;"."</f>
-        <v>RPS-0.35.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y14" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D14&amp;"."</f>
-        <v>CO2p-0.1.</v>
+        <v>CO2p-0.35.</v>
       </c>
       <c r="Z14" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E14&amp;"."</f>
@@ -2203,11 +2200,10 @@
         <v>8</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2239,11 +2235,11 @@
       </c>
       <c r="X15" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C15&amp;"."</f>
-        <v>RPS-0.45.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y15" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D15&amp;"."</f>
-        <v>CO2p-0.1.</v>
+        <v>CO2p-0.4.</v>
       </c>
       <c r="Z15" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E15&amp;"."</f>
@@ -2259,7 +2255,6 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D16">
@@ -2307,8 +2302,7 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0.2</v>
@@ -2337,7 +2331,7 @@
       </c>
       <c r="X17" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C17&amp;"."</f>
-        <v>RPS-0.25.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y17" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D17&amp;"."</f>
@@ -2357,8 +2351,7 @@
         <v>11</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0.2</v>
@@ -2389,7 +2382,7 @@
       </c>
       <c r="X18" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C18&amp;"."</f>
-        <v>RPS-0.35.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y18" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D18&amp;"."</f>
@@ -2409,8 +2402,7 @@
         <v>12</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0.2</v>
@@ -2439,7 +2431,7 @@
       </c>
       <c r="X19" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C19&amp;"."</f>
-        <v>RPS-0.45.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y19" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D19&amp;"."</f>
@@ -2459,12 +2451,11 @@
         <v>13</v>
       </c>
       <c r="C20">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D20">
         <f>D8</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E20">
         <v>0.9</v>
@@ -2479,7 +2470,7 @@
       </c>
       <c r="Y20" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D20&amp;"."</f>
-        <v>CO2p-0.</v>
+        <v>CO2p-0.05.</v>
       </c>
       <c r="Z20" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E20&amp;"."</f>
@@ -2495,12 +2486,11 @@
         <v>14</v>
       </c>
       <c r="C21">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:D79" si="2">D9</f>
-        <v>0</v>
+        <f t="shared" ref="D21:D79" si="1">D9</f>
+        <v>0.1</v>
       </c>
       <c r="E21">
         <v>0.9</v>
@@ -2511,11 +2501,11 @@
       <c r="H21" s="28"/>
       <c r="X21" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C21&amp;"."</f>
-        <v>RPS-0.25.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y21" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D21&amp;"."</f>
-        <v>CO2p-0.</v>
+        <v>CO2p-0.1.</v>
       </c>
       <c r="Z21" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E21&amp;"."</f>
@@ -2531,12 +2521,11 @@
         <v>15</v>
       </c>
       <c r="C22">
-        <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15</v>
       </c>
       <c r="E22">
         <v>0.9</v>
@@ -2561,11 +2550,11 @@
       <c r="T22" s="26"/>
       <c r="X22" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C22&amp;"."</f>
-        <v>RPS-0.35.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y22" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D22&amp;"."</f>
-        <v>CO2p-0.</v>
+        <v>CO2p-0.15.</v>
       </c>
       <c r="Z22" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E22&amp;"."</f>
@@ -2581,12 +2570,11 @@
         <v>16</v>
       </c>
       <c r="C23">
-        <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
       <c r="E23">
         <v>0.9</v>
@@ -2602,11 +2590,11 @@
       <c r="P23" s="15"/>
       <c r="X23" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C23&amp;"."</f>
-        <v>RPS-0.45.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y23" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D23&amp;"."</f>
-        <v>CO2p-0.</v>
+        <v>CO2p-0.2.</v>
       </c>
       <c r="Z23" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E23&amp;"."</f>
@@ -2622,12 +2610,11 @@
         <v>17</v>
       </c>
       <c r="C24">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D24">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
+        <f t="shared" si="1"/>
+        <v>0.25</v>
       </c>
       <c r="E24">
         <v>0.9</v>
@@ -2666,7 +2653,7 @@
       </c>
       <c r="Y24" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D24&amp;"."</f>
-        <v>CO2p-0.1.</v>
+        <v>CO2p-0.25.</v>
       </c>
       <c r="Z24" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E24&amp;"."</f>
@@ -2682,12 +2669,11 @@
         <v>18</v>
       </c>
       <c r="C25">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
+        <f t="shared" si="1"/>
+        <v>0.3</v>
       </c>
       <c r="E25">
         <v>0.9</v>
@@ -2712,11 +2698,11 @@
       </c>
       <c r="X25" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C25&amp;"."</f>
-        <v>RPS-0.25.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y25" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D25&amp;"."</f>
-        <v>CO2p-0.1.</v>
+        <v>CO2p-0.3.</v>
       </c>
       <c r="Z25" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E25&amp;"."</f>
@@ -2732,12 +2718,11 @@
         <v>19</v>
       </c>
       <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
         <f t="shared" si="1"/>
         <v>0.35</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
       </c>
       <c r="E26">
         <v>0.9</v>
@@ -2748,11 +2733,11 @@
       <c r="H26" s="28"/>
       <c r="X26" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C26&amp;"."</f>
-        <v>RPS-0.35.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y26" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D26&amp;"."</f>
-        <v>CO2p-0.1.</v>
+        <v>CO2p-0.35.</v>
       </c>
       <c r="Z26" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E26&amp;"."</f>
@@ -2768,12 +2753,11 @@
         <v>20</v>
       </c>
       <c r="C27">
-        <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
+        <f t="shared" si="1"/>
+        <v>0.4</v>
       </c>
       <c r="E27">
         <v>0.9</v>
@@ -2784,11 +2768,11 @@
       <c r="H27" s="28"/>
       <c r="X27" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C27&amp;"."</f>
-        <v>RPS-0.45.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y27" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D27&amp;"."</f>
-        <v>CO2p-0.1.</v>
+        <v>CO2p-0.4.</v>
       </c>
       <c r="Z27" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E27&amp;"."</f>
@@ -2804,11 +2788,10 @@
         <v>21</v>
       </c>
       <c r="C28">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="E28">
@@ -2840,11 +2823,10 @@
         <v>22</v>
       </c>
       <c r="C29">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="E29">
@@ -2870,7 +2852,7 @@
       <c r="T29" s="26"/>
       <c r="X29" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C29&amp;"."</f>
-        <v>RPS-0.25.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y29" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D29&amp;"."</f>
@@ -2890,11 +2872,10 @@
         <v>23</v>
       </c>
       <c r="C30">
-        <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="E30">
@@ -2909,7 +2890,7 @@
       </c>
       <c r="X30" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C30&amp;"."</f>
-        <v>RPS-0.35.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y30" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D30&amp;"."</f>
@@ -2929,11 +2910,10 @@
         <v>24</v>
       </c>
       <c r="C31">
-        <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="E31">
@@ -2959,7 +2939,7 @@
       </c>
       <c r="X31" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C31&amp;"."</f>
-        <v>RPS-0.45.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y31" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D31&amp;"."</f>
@@ -2979,12 +2959,11 @@
         <v>25</v>
       </c>
       <c r="C32">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D32">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.05</v>
       </c>
       <c r="E32">
         <v>1.1000000000000001</v>
@@ -3007,7 +2986,7 @@
       </c>
       <c r="Y32" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D32&amp;"."</f>
-        <v>CO2p-0.</v>
+        <v>CO2p-0.05.</v>
       </c>
       <c r="Z32" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E32&amp;"."</f>
@@ -3023,12 +3002,11 @@
         <v>26</v>
       </c>
       <c r="C33">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.1</v>
       </c>
       <c r="E33">
         <v>1.1000000000000001</v>
@@ -3038,11 +3016,11 @@
       </c>
       <c r="X33" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C33&amp;"."</f>
-        <v>RPS-0.25.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y33" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D33&amp;"."</f>
-        <v>CO2p-0.</v>
+        <v>CO2p-0.1.</v>
       </c>
       <c r="Z33" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E33&amp;"."</f>
@@ -3058,12 +3036,11 @@
         <v>27</v>
       </c>
       <c r="C34">
-        <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.15</v>
       </c>
       <c r="E34">
         <v>1.1000000000000001</v>
@@ -3073,11 +3050,11 @@
       </c>
       <c r="X34" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C34&amp;"."</f>
-        <v>RPS-0.35.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y34" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D34&amp;"."</f>
-        <v>CO2p-0.</v>
+        <v>CO2p-0.15.</v>
       </c>
       <c r="Z34" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E34&amp;"."</f>
@@ -3093,12 +3070,11 @@
         <v>28</v>
       </c>
       <c r="C35">
-        <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
       <c r="E35">
         <v>1.1000000000000001</v>
@@ -3108,11 +3084,11 @@
       </c>
       <c r="X35" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C35&amp;"."</f>
-        <v>RPS-0.45.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y35" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D35&amp;"."</f>
-        <v>CO2p-0.</v>
+        <v>CO2p-0.2.</v>
       </c>
       <c r="Z35" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E35&amp;"."</f>
@@ -3128,12 +3104,11 @@
         <v>29</v>
       </c>
       <c r="C36">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D36">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
+        <f t="shared" si="1"/>
+        <v>0.25</v>
       </c>
       <c r="E36">
         <v>1.1000000000000001</v>
@@ -3147,7 +3122,7 @@
       </c>
       <c r="Y36" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D36&amp;"."</f>
-        <v>CO2p-0.1.</v>
+        <v>CO2p-0.25.</v>
       </c>
       <c r="Z36" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E36&amp;"."</f>
@@ -3163,12 +3138,11 @@
         <v>30</v>
       </c>
       <c r="C37">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
+        <f t="shared" si="1"/>
+        <v>0.3</v>
       </c>
       <c r="E37">
         <v>1.1000000000000001</v>
@@ -3178,11 +3152,11 @@
       </c>
       <c r="X37" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C37&amp;"."</f>
-        <v>RPS-0.25.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y37" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D37&amp;"."</f>
-        <v>CO2p-0.1.</v>
+        <v>CO2p-0.3.</v>
       </c>
       <c r="Z37" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E37&amp;"."</f>
@@ -3198,12 +3172,11 @@
         <v>31</v>
       </c>
       <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
         <f t="shared" si="1"/>
         <v>0.35</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
       </c>
       <c r="E38">
         <v>1.1000000000000001</v>
@@ -3213,11 +3186,11 @@
       </c>
       <c r="X38" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C38&amp;"."</f>
-        <v>RPS-0.35.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y38" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D38&amp;"."</f>
-        <v>CO2p-0.1.</v>
+        <v>CO2p-0.35.</v>
       </c>
       <c r="Z38" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E38&amp;"."</f>
@@ -3233,12 +3206,11 @@
         <v>32</v>
       </c>
       <c r="C39">
-        <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
+        <f t="shared" si="1"/>
+        <v>0.4</v>
       </c>
       <c r="E39">
         <v>1.1000000000000001</v>
@@ -3248,11 +3220,11 @@
       </c>
       <c r="X39" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C39&amp;"."</f>
-        <v>RPS-0.45.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y39" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D39&amp;"."</f>
-        <v>CO2p-0.1.</v>
+        <v>CO2p-0.4.</v>
       </c>
       <c r="Z39" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E39&amp;"."</f>
@@ -3268,11 +3240,10 @@
         <v>33</v>
       </c>
       <c r="C40">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="E40">
@@ -3303,11 +3274,10 @@
         <v>34</v>
       </c>
       <c r="C41">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="E41">
@@ -3318,7 +3288,7 @@
       </c>
       <c r="X41" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C41&amp;"."</f>
-        <v>RPS-0.25.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y41" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D41&amp;"."</f>
@@ -3338,11 +3308,10 @@
         <v>35</v>
       </c>
       <c r="C42">
-        <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="E42">
@@ -3353,7 +3322,7 @@
       </c>
       <c r="X42" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C42&amp;"."</f>
-        <v>RPS-0.35.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y42" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D42&amp;"."</f>
@@ -3373,11 +3342,10 @@
         <v>36</v>
       </c>
       <c r="C43">
-        <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="E43">
@@ -3388,7 +3356,7 @@
       </c>
       <c r="X43" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C43&amp;"."</f>
-        <v>RPS-0.45.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y43" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D43&amp;"."</f>
@@ -3408,12 +3376,11 @@
         <v>37</v>
       </c>
       <c r="C44">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D44">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.05</v>
       </c>
       <c r="E44">
         <f>E8</f>
@@ -3428,7 +3395,7 @@
       </c>
       <c r="Y44" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D44&amp;"."</f>
-        <v>CO2p-0.</v>
+        <v>CO2p-0.05.</v>
       </c>
       <c r="Z44" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E44&amp;"."</f>
@@ -3444,15 +3411,14 @@
         <v>38</v>
       </c>
       <c r="C45">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.1</v>
       </c>
       <c r="E45">
-        <f t="shared" ref="E45:E79" si="3">E9</f>
+        <f t="shared" ref="E45:E79" si="2">E9</f>
         <v>1</v>
       </c>
       <c r="F45" t="s">
@@ -3460,11 +3426,11 @@
       </c>
       <c r="X45" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C45&amp;"."</f>
-        <v>RPS-0.25.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y45" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D45&amp;"."</f>
-        <v>CO2p-0.</v>
+        <v>CO2p-0.1.</v>
       </c>
       <c r="Z45" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E45&amp;"."</f>
@@ -3480,15 +3446,14 @@
         <v>39</v>
       </c>
       <c r="C46">
-        <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="D46">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="E46">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F46" t="s">
@@ -3496,11 +3461,11 @@
       </c>
       <c r="X46" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C46&amp;"."</f>
-        <v>RPS-0.35.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y46" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D46&amp;"."</f>
-        <v>CO2p-0.</v>
+        <v>CO2p-0.15.</v>
       </c>
       <c r="Z46" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E46&amp;"."</f>
@@ -3516,15 +3481,14 @@
         <v>40</v>
       </c>
       <c r="C47">
-        <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="D47">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E47">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F47" t="s">
@@ -3532,11 +3496,11 @@
       </c>
       <c r="X47" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C47&amp;"."</f>
-        <v>RPS-0.45.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y47" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D47&amp;"."</f>
-        <v>CO2p-0.</v>
+        <v>CO2p-0.2.</v>
       </c>
       <c r="Z47" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E47&amp;"."</f>
@@ -3552,15 +3516,14 @@
         <v>41</v>
       </c>
       <c r="C48">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D48">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="E48">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F48" t="s">
@@ -3572,7 +3535,7 @@
       </c>
       <c r="Y48" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D48&amp;"."</f>
-        <v>CO2p-0.1.</v>
+        <v>CO2p-0.25.</v>
       </c>
       <c r="Z48" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E48&amp;"."</f>
@@ -3588,15 +3551,14 @@
         <v>42</v>
       </c>
       <c r="C49">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D49">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="E49">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F49" t="s">
@@ -3604,11 +3566,11 @@
       </c>
       <c r="X49" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C49&amp;"."</f>
-        <v>RPS-0.25.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y49" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D49&amp;"."</f>
-        <v>CO2p-0.1.</v>
+        <v>CO2p-0.3.</v>
       </c>
       <c r="Z49" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E49&amp;"."</f>
@@ -3624,15 +3586,14 @@
         <v>43</v>
       </c>
       <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
         <f t="shared" si="1"/>
         <v>0.35</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F50" t="s">
@@ -3640,11 +3601,11 @@
       </c>
       <c r="X50" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C50&amp;"."</f>
-        <v>RPS-0.35.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y50" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D50&amp;"."</f>
-        <v>CO2p-0.1.</v>
+        <v>CO2p-0.35.</v>
       </c>
       <c r="Z50" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E50&amp;"."</f>
@@ -3660,15 +3621,14 @@
         <v>44</v>
       </c>
       <c r="C51">
-        <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="D51">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="E51">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F51" t="s">
@@ -3676,11 +3636,11 @@
       </c>
       <c r="X51" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C51&amp;"."</f>
-        <v>RPS-0.45.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y51" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D51&amp;"."</f>
-        <v>CO2p-0.1.</v>
+        <v>CO2p-0.4.</v>
       </c>
       <c r="Z51" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E51&amp;"."</f>
@@ -3696,15 +3656,14 @@
         <v>45</v>
       </c>
       <c r="C52">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D52">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E52">
         <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F52" t="s">
@@ -3732,15 +3691,14 @@
         <v>46</v>
       </c>
       <c r="C53">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D53">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E53">
         <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F53" t="s">
@@ -3748,7 +3706,7 @@
       </c>
       <c r="X53" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C53&amp;"."</f>
-        <v>RPS-0.25.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y53" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D53&amp;"."</f>
@@ -3768,15 +3726,14 @@
         <v>47</v>
       </c>
       <c r="C54">
-        <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="D54">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E54">
         <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F54" t="s">
@@ -3784,7 +3741,7 @@
       </c>
       <c r="X54" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C54&amp;"."</f>
-        <v>RPS-0.35.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y54" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D54&amp;"."</f>
@@ -3804,15 +3761,14 @@
         <v>48</v>
       </c>
       <c r="C55">
-        <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="D55">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E55">
         <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F55" t="s">
@@ -3820,7 +3776,7 @@
       </c>
       <c r="X55" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C55&amp;"."</f>
-        <v>RPS-0.45.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y55" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D55&amp;"."</f>
@@ -3840,15 +3796,14 @@
         <v>49</v>
       </c>
       <c r="C56">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D56">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="E56">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="F56" t="s">
@@ -3860,7 +3815,7 @@
       </c>
       <c r="Y56" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D56&amp;"."</f>
-        <v>CO2p-0.</v>
+        <v>CO2p-0.05.</v>
       </c>
       <c r="Z56" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E56&amp;"."</f>
@@ -3876,15 +3831,14 @@
         <v>50</v>
       </c>
       <c r="C57">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D57">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="E57">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="F57" t="s">
@@ -3892,11 +3846,11 @@
       </c>
       <c r="X57" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C57&amp;"."</f>
-        <v>RPS-0.25.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y57" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D57&amp;"."</f>
-        <v>CO2p-0.</v>
+        <v>CO2p-0.1.</v>
       </c>
       <c r="Z57" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E57&amp;"."</f>
@@ -3912,15 +3866,14 @@
         <v>51</v>
       </c>
       <c r="C58">
-        <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="D58">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="E58">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="F58" t="s">
@@ -3928,11 +3881,11 @@
       </c>
       <c r="X58" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C58&amp;"."</f>
-        <v>RPS-0.35.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y58" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D58&amp;"."</f>
-        <v>CO2p-0.</v>
+        <v>CO2p-0.15.</v>
       </c>
       <c r="Z58" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E58&amp;"."</f>
@@ -3948,15 +3901,14 @@
         <v>52</v>
       </c>
       <c r="C59">
-        <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="D59">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E59">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="F59" t="s">
@@ -3964,11 +3916,11 @@
       </c>
       <c r="X59" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C59&amp;"."</f>
-        <v>RPS-0.45.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y59" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D59&amp;"."</f>
-        <v>CO2p-0.</v>
+        <v>CO2p-0.2.</v>
       </c>
       <c r="Z59" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E59&amp;"."</f>
@@ -3984,15 +3936,14 @@
         <v>53</v>
       </c>
       <c r="C60">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D60">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="E60">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="F60" t="s">
@@ -4004,7 +3955,7 @@
       </c>
       <c r="Y60" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D60&amp;"."</f>
-        <v>CO2p-0.1.</v>
+        <v>CO2p-0.25.</v>
       </c>
       <c r="Z60" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E60&amp;"."</f>
@@ -4020,15 +3971,14 @@
         <v>54</v>
       </c>
       <c r="C61">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D61">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="E61">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="F61" t="s">
@@ -4036,11 +3986,11 @@
       </c>
       <c r="X61" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C61&amp;"."</f>
-        <v>RPS-0.25.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y61" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D61&amp;"."</f>
-        <v>CO2p-0.1.</v>
+        <v>CO2p-0.3.</v>
       </c>
       <c r="Z61" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E61&amp;"."</f>
@@ -4056,15 +4006,14 @@
         <v>55</v>
       </c>
       <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
         <f t="shared" si="1"/>
         <v>0.35</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="F62" t="s">
@@ -4072,11 +4021,11 @@
       </c>
       <c r="X62" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C62&amp;"."</f>
-        <v>RPS-0.35.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y62" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D62&amp;"."</f>
-        <v>CO2p-0.1.</v>
+        <v>CO2p-0.35.</v>
       </c>
       <c r="Z62" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E62&amp;"."</f>
@@ -4092,15 +4041,14 @@
         <v>56</v>
       </c>
       <c r="C63">
-        <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="D63">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="E63">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="F63" t="s">
@@ -4108,11 +4056,11 @@
       </c>
       <c r="X63" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C63&amp;"."</f>
-        <v>RPS-0.45.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y63" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D63&amp;"."</f>
-        <v>CO2p-0.1.</v>
+        <v>CO2p-0.4.</v>
       </c>
       <c r="Z63" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E63&amp;"."</f>
@@ -4128,15 +4076,14 @@
         <v>57</v>
       </c>
       <c r="C64">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D64">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E64">
         <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="F64" t="s">
@@ -4164,15 +4111,14 @@
         <v>58</v>
       </c>
       <c r="C65">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D65">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E65">
         <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="F65" t="s">
@@ -4180,7 +4126,7 @@
       </c>
       <c r="X65" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C65&amp;"."</f>
-        <v>RPS-0.25.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y65" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D65&amp;"."</f>
@@ -4200,15 +4146,14 @@
         <v>59</v>
       </c>
       <c r="C66">
-        <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="D66">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E66">
         <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="F66" t="s">
@@ -4216,7 +4161,7 @@
       </c>
       <c r="X66" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C66&amp;"."</f>
-        <v>RPS-0.35.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y66" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D66&amp;"."</f>
@@ -4236,15 +4181,14 @@
         <v>60</v>
       </c>
       <c r="C67">
-        <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="D67">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E67">
         <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="E67">
-        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="F67" t="s">
@@ -4252,7 +4196,7 @@
       </c>
       <c r="X67" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C67&amp;"."</f>
-        <v>RPS-0.45.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y67" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D67&amp;"."</f>
@@ -4272,15 +4216,14 @@
         <v>61</v>
       </c>
       <c r="C68">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D68">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="E68">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="F68" t="s">
@@ -4292,7 +4235,7 @@
       </c>
       <c r="Y68" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D68&amp;"."</f>
-        <v>CO2p-0.</v>
+        <v>CO2p-0.05.</v>
       </c>
       <c r="Z68" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E68&amp;"."</f>
@@ -4308,15 +4251,14 @@
         <v>62</v>
       </c>
       <c r="C69">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D69">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="E69">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="F69" t="s">
@@ -4324,11 +4266,11 @@
       </c>
       <c r="X69" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C69&amp;"."</f>
-        <v>RPS-0.25.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y69" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D69&amp;"."</f>
-        <v>CO2p-0.</v>
+        <v>CO2p-0.1.</v>
       </c>
       <c r="Z69" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E69&amp;"."</f>
@@ -4344,15 +4286,14 @@
         <v>63</v>
       </c>
       <c r="C70">
-        <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="D70">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="E70">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="F70" t="s">
@@ -4360,11 +4301,11 @@
       </c>
       <c r="X70" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C70&amp;"."</f>
-        <v>RPS-0.35.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y70" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D70&amp;"."</f>
-        <v>CO2p-0.</v>
+        <v>CO2p-0.15.</v>
       </c>
       <c r="Z70" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E70&amp;"."</f>
@@ -4380,15 +4321,14 @@
         <v>64</v>
       </c>
       <c r="C71">
-        <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="D71">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E71">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="F71" t="s">
@@ -4396,11 +4336,11 @@
       </c>
       <c r="X71" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C71&amp;"."</f>
-        <v>RPS-0.45.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y71" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D71&amp;"."</f>
-        <v>CO2p-0.</v>
+        <v>CO2p-0.2.</v>
       </c>
       <c r="Z71" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E71&amp;"."</f>
@@ -4416,15 +4356,14 @@
         <v>65</v>
       </c>
       <c r="C72">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D72">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="E72">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="F72" t="s">
@@ -4436,7 +4375,7 @@
       </c>
       <c r="Y72" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D72&amp;"."</f>
-        <v>CO2p-0.1.</v>
+        <v>CO2p-0.25.</v>
       </c>
       <c r="Z72" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E72&amp;"."</f>
@@ -4452,15 +4391,14 @@
         <v>66</v>
       </c>
       <c r="C73">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D73">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="E73">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="F73" t="s">
@@ -4468,11 +4406,11 @@
       </c>
       <c r="X73" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C73&amp;"."</f>
-        <v>RPS-0.25.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y73" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D73&amp;"."</f>
-        <v>CO2p-0.1.</v>
+        <v>CO2p-0.3.</v>
       </c>
       <c r="Z73" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E73&amp;"."</f>
@@ -4488,15 +4426,14 @@
         <v>67</v>
       </c>
       <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
         <f t="shared" si="1"/>
         <v>0.35</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="F74" t="s">
@@ -4504,11 +4441,11 @@
       </c>
       <c r="X74" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C74&amp;"."</f>
-        <v>RPS-0.35.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y74" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D74&amp;"."</f>
-        <v>CO2p-0.1.</v>
+        <v>CO2p-0.35.</v>
       </c>
       <c r="Z74" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E74&amp;"."</f>
@@ -4524,15 +4461,14 @@
         <v>68</v>
       </c>
       <c r="C75">
-        <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="D75">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="E75">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="F75" t="s">
@@ -4540,11 +4476,11 @@
       </c>
       <c r="X75" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C75&amp;"."</f>
-        <v>RPS-0.45.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y75" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D75&amp;"."</f>
-        <v>CO2p-0.1.</v>
+        <v>CO2p-0.4.</v>
       </c>
       <c r="Z75" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E75&amp;"."</f>
@@ -4560,15 +4496,14 @@
         <v>69</v>
       </c>
       <c r="C76">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D76">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E76">
         <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="F76" t="s">
@@ -4596,15 +4531,14 @@
         <v>70</v>
       </c>
       <c r="C77">
-        <f t="shared" ref="C77:C79" si="4">C73</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D77">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E77">
         <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="F77" t="s">
@@ -4612,7 +4546,7 @@
       </c>
       <c r="X77" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C77&amp;"."</f>
-        <v>RPS-0.25.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y77" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D77&amp;"."</f>
@@ -4632,15 +4566,14 @@
         <v>71</v>
       </c>
       <c r="C78">
-        <f t="shared" si="4"/>
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="D78">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E78">
         <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="F78" t="s">
@@ -4648,7 +4581,7 @@
       </c>
       <c r="X78" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C78&amp;"."</f>
-        <v>RPS-0.35.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y78" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D78&amp;"."</f>
@@ -4668,15 +4601,14 @@
         <v>72</v>
       </c>
       <c r="C79">
-        <f t="shared" si="4"/>
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="D79">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E79">
         <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="F79" t="s">
@@ -4684,7 +4616,7 @@
       </c>
       <c r="X79" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!C$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!C79&amp;"."</f>
-        <v>RPS-0.45.</v>
+        <v>RPS-0.</v>
       </c>
       <c r="Y79" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D79&amp;"."</f>

--- a/suppxls/Scen_Par-RPS_CO2p_GasP_Nuc.xlsx
+++ b/suppxls/Scen_Par-RPS_CO2p_GasP_Nuc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NewVEDA\Veda\Veda_models\Model_Demo_Adv_Veda\suppxls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\Model_Demo_Adv_Veda_Nov22\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372B172A-C4CE-4FC2-93F5-A4BDC0092FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3210319-52CA-43A9-9C23-73B26913B9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E4274E74-7A86-476E-8D8F-2DC29368AA80}"/>
+    <workbookView xWindow="3645" yWindow="3645" windowWidth="21600" windowHeight="12683" activeTab="1" xr2:uid="{E4274E74-7A86-476E-8D8F-2DC29368AA80}"/>
   </bookViews>
   <sheets>
     <sheet name="CaseDesc" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="52">
   <si>
     <t>Cset_CN</t>
   </si>
@@ -183,7 +183,22 @@
     <t>START</t>
   </si>
   <si>
-    <t>~InputCell: 1-8</t>
+    <t>~InputCell: 4,6,8</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>other_indexes</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>$ SET FIXBOH 2030</t>
+  </si>
+  <si>
+    <t>RFCmd_flags</t>
   </si>
 </sst>
 </file>
@@ -866,139 +881,139 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="2.5703125" customWidth="1"/>
-    <col min="259" max="259" width="111.140625" customWidth="1"/>
-    <col min="513" max="513" width="2.5703125" customWidth="1"/>
-    <col min="515" max="515" width="111.140625" customWidth="1"/>
-    <col min="769" max="769" width="2.5703125" customWidth="1"/>
-    <col min="771" max="771" width="111.140625" customWidth="1"/>
-    <col min="1025" max="1025" width="2.5703125" customWidth="1"/>
-    <col min="1027" max="1027" width="111.140625" customWidth="1"/>
-    <col min="1281" max="1281" width="2.5703125" customWidth="1"/>
-    <col min="1283" max="1283" width="111.140625" customWidth="1"/>
-    <col min="1537" max="1537" width="2.5703125" customWidth="1"/>
-    <col min="1539" max="1539" width="111.140625" customWidth="1"/>
-    <col min="1793" max="1793" width="2.5703125" customWidth="1"/>
-    <col min="1795" max="1795" width="111.140625" customWidth="1"/>
-    <col min="2049" max="2049" width="2.5703125" customWidth="1"/>
-    <col min="2051" max="2051" width="111.140625" customWidth="1"/>
-    <col min="2305" max="2305" width="2.5703125" customWidth="1"/>
-    <col min="2307" max="2307" width="111.140625" customWidth="1"/>
-    <col min="2561" max="2561" width="2.5703125" customWidth="1"/>
-    <col min="2563" max="2563" width="111.140625" customWidth="1"/>
-    <col min="2817" max="2817" width="2.5703125" customWidth="1"/>
-    <col min="2819" max="2819" width="111.140625" customWidth="1"/>
-    <col min="3073" max="3073" width="2.5703125" customWidth="1"/>
-    <col min="3075" max="3075" width="111.140625" customWidth="1"/>
-    <col min="3329" max="3329" width="2.5703125" customWidth="1"/>
-    <col min="3331" max="3331" width="111.140625" customWidth="1"/>
-    <col min="3585" max="3585" width="2.5703125" customWidth="1"/>
-    <col min="3587" max="3587" width="111.140625" customWidth="1"/>
-    <col min="3841" max="3841" width="2.5703125" customWidth="1"/>
-    <col min="3843" max="3843" width="111.140625" customWidth="1"/>
-    <col min="4097" max="4097" width="2.5703125" customWidth="1"/>
-    <col min="4099" max="4099" width="111.140625" customWidth="1"/>
-    <col min="4353" max="4353" width="2.5703125" customWidth="1"/>
-    <col min="4355" max="4355" width="111.140625" customWidth="1"/>
-    <col min="4609" max="4609" width="2.5703125" customWidth="1"/>
-    <col min="4611" max="4611" width="111.140625" customWidth="1"/>
-    <col min="4865" max="4865" width="2.5703125" customWidth="1"/>
-    <col min="4867" max="4867" width="111.140625" customWidth="1"/>
-    <col min="5121" max="5121" width="2.5703125" customWidth="1"/>
-    <col min="5123" max="5123" width="111.140625" customWidth="1"/>
-    <col min="5377" max="5377" width="2.5703125" customWidth="1"/>
-    <col min="5379" max="5379" width="111.140625" customWidth="1"/>
-    <col min="5633" max="5633" width="2.5703125" customWidth="1"/>
-    <col min="5635" max="5635" width="111.140625" customWidth="1"/>
-    <col min="5889" max="5889" width="2.5703125" customWidth="1"/>
-    <col min="5891" max="5891" width="111.140625" customWidth="1"/>
-    <col min="6145" max="6145" width="2.5703125" customWidth="1"/>
-    <col min="6147" max="6147" width="111.140625" customWidth="1"/>
-    <col min="6401" max="6401" width="2.5703125" customWidth="1"/>
-    <col min="6403" max="6403" width="111.140625" customWidth="1"/>
-    <col min="6657" max="6657" width="2.5703125" customWidth="1"/>
-    <col min="6659" max="6659" width="111.140625" customWidth="1"/>
-    <col min="6913" max="6913" width="2.5703125" customWidth="1"/>
-    <col min="6915" max="6915" width="111.140625" customWidth="1"/>
-    <col min="7169" max="7169" width="2.5703125" customWidth="1"/>
-    <col min="7171" max="7171" width="111.140625" customWidth="1"/>
-    <col min="7425" max="7425" width="2.5703125" customWidth="1"/>
-    <col min="7427" max="7427" width="111.140625" customWidth="1"/>
-    <col min="7681" max="7681" width="2.5703125" customWidth="1"/>
-    <col min="7683" max="7683" width="111.140625" customWidth="1"/>
-    <col min="7937" max="7937" width="2.5703125" customWidth="1"/>
-    <col min="7939" max="7939" width="111.140625" customWidth="1"/>
-    <col min="8193" max="8193" width="2.5703125" customWidth="1"/>
-    <col min="8195" max="8195" width="111.140625" customWidth="1"/>
-    <col min="8449" max="8449" width="2.5703125" customWidth="1"/>
-    <col min="8451" max="8451" width="111.140625" customWidth="1"/>
-    <col min="8705" max="8705" width="2.5703125" customWidth="1"/>
-    <col min="8707" max="8707" width="111.140625" customWidth="1"/>
-    <col min="8961" max="8961" width="2.5703125" customWidth="1"/>
-    <col min="8963" max="8963" width="111.140625" customWidth="1"/>
-    <col min="9217" max="9217" width="2.5703125" customWidth="1"/>
-    <col min="9219" max="9219" width="111.140625" customWidth="1"/>
-    <col min="9473" max="9473" width="2.5703125" customWidth="1"/>
-    <col min="9475" max="9475" width="111.140625" customWidth="1"/>
-    <col min="9729" max="9729" width="2.5703125" customWidth="1"/>
-    <col min="9731" max="9731" width="111.140625" customWidth="1"/>
-    <col min="9985" max="9985" width="2.5703125" customWidth="1"/>
-    <col min="9987" max="9987" width="111.140625" customWidth="1"/>
-    <col min="10241" max="10241" width="2.5703125" customWidth="1"/>
-    <col min="10243" max="10243" width="111.140625" customWidth="1"/>
-    <col min="10497" max="10497" width="2.5703125" customWidth="1"/>
-    <col min="10499" max="10499" width="111.140625" customWidth="1"/>
-    <col min="10753" max="10753" width="2.5703125" customWidth="1"/>
-    <col min="10755" max="10755" width="111.140625" customWidth="1"/>
-    <col min="11009" max="11009" width="2.5703125" customWidth="1"/>
-    <col min="11011" max="11011" width="111.140625" customWidth="1"/>
-    <col min="11265" max="11265" width="2.5703125" customWidth="1"/>
-    <col min="11267" max="11267" width="111.140625" customWidth="1"/>
-    <col min="11521" max="11521" width="2.5703125" customWidth="1"/>
-    <col min="11523" max="11523" width="111.140625" customWidth="1"/>
-    <col min="11777" max="11777" width="2.5703125" customWidth="1"/>
-    <col min="11779" max="11779" width="111.140625" customWidth="1"/>
-    <col min="12033" max="12033" width="2.5703125" customWidth="1"/>
-    <col min="12035" max="12035" width="111.140625" customWidth="1"/>
-    <col min="12289" max="12289" width="2.5703125" customWidth="1"/>
-    <col min="12291" max="12291" width="111.140625" customWidth="1"/>
-    <col min="12545" max="12545" width="2.5703125" customWidth="1"/>
-    <col min="12547" max="12547" width="111.140625" customWidth="1"/>
-    <col min="12801" max="12801" width="2.5703125" customWidth="1"/>
-    <col min="12803" max="12803" width="111.140625" customWidth="1"/>
-    <col min="13057" max="13057" width="2.5703125" customWidth="1"/>
-    <col min="13059" max="13059" width="111.140625" customWidth="1"/>
-    <col min="13313" max="13313" width="2.5703125" customWidth="1"/>
-    <col min="13315" max="13315" width="111.140625" customWidth="1"/>
-    <col min="13569" max="13569" width="2.5703125" customWidth="1"/>
-    <col min="13571" max="13571" width="111.140625" customWidth="1"/>
-    <col min="13825" max="13825" width="2.5703125" customWidth="1"/>
-    <col min="13827" max="13827" width="111.140625" customWidth="1"/>
-    <col min="14081" max="14081" width="2.5703125" customWidth="1"/>
-    <col min="14083" max="14083" width="111.140625" customWidth="1"/>
-    <col min="14337" max="14337" width="2.5703125" customWidth="1"/>
-    <col min="14339" max="14339" width="111.140625" customWidth="1"/>
-    <col min="14593" max="14593" width="2.5703125" customWidth="1"/>
-    <col min="14595" max="14595" width="111.140625" customWidth="1"/>
-    <col min="14849" max="14849" width="2.5703125" customWidth="1"/>
-    <col min="14851" max="14851" width="111.140625" customWidth="1"/>
-    <col min="15105" max="15105" width="2.5703125" customWidth="1"/>
-    <col min="15107" max="15107" width="111.140625" customWidth="1"/>
-    <col min="15361" max="15361" width="2.5703125" customWidth="1"/>
-    <col min="15363" max="15363" width="111.140625" customWidth="1"/>
-    <col min="15617" max="15617" width="2.5703125" customWidth="1"/>
-    <col min="15619" max="15619" width="111.140625" customWidth="1"/>
-    <col min="15873" max="15873" width="2.5703125" customWidth="1"/>
-    <col min="15875" max="15875" width="111.140625" customWidth="1"/>
-    <col min="16129" max="16129" width="2.5703125" customWidth="1"/>
-    <col min="16131" max="16131" width="111.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.59765625" customWidth="1"/>
+    <col min="3" max="3" width="32.73046875" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="2.59765625" customWidth="1"/>
+    <col min="259" max="259" width="111.1328125" customWidth="1"/>
+    <col min="513" max="513" width="2.59765625" customWidth="1"/>
+    <col min="515" max="515" width="111.1328125" customWidth="1"/>
+    <col min="769" max="769" width="2.59765625" customWidth="1"/>
+    <col min="771" max="771" width="111.1328125" customWidth="1"/>
+    <col min="1025" max="1025" width="2.59765625" customWidth="1"/>
+    <col min="1027" max="1027" width="111.1328125" customWidth="1"/>
+    <col min="1281" max="1281" width="2.59765625" customWidth="1"/>
+    <col min="1283" max="1283" width="111.1328125" customWidth="1"/>
+    <col min="1537" max="1537" width="2.59765625" customWidth="1"/>
+    <col min="1539" max="1539" width="111.1328125" customWidth="1"/>
+    <col min="1793" max="1793" width="2.59765625" customWidth="1"/>
+    <col min="1795" max="1795" width="111.1328125" customWidth="1"/>
+    <col min="2049" max="2049" width="2.59765625" customWidth="1"/>
+    <col min="2051" max="2051" width="111.1328125" customWidth="1"/>
+    <col min="2305" max="2305" width="2.59765625" customWidth="1"/>
+    <col min="2307" max="2307" width="111.1328125" customWidth="1"/>
+    <col min="2561" max="2561" width="2.59765625" customWidth="1"/>
+    <col min="2563" max="2563" width="111.1328125" customWidth="1"/>
+    <col min="2817" max="2817" width="2.59765625" customWidth="1"/>
+    <col min="2819" max="2819" width="111.1328125" customWidth="1"/>
+    <col min="3073" max="3073" width="2.59765625" customWidth="1"/>
+    <col min="3075" max="3075" width="111.1328125" customWidth="1"/>
+    <col min="3329" max="3329" width="2.59765625" customWidth="1"/>
+    <col min="3331" max="3331" width="111.1328125" customWidth="1"/>
+    <col min="3585" max="3585" width="2.59765625" customWidth="1"/>
+    <col min="3587" max="3587" width="111.1328125" customWidth="1"/>
+    <col min="3841" max="3841" width="2.59765625" customWidth="1"/>
+    <col min="3843" max="3843" width="111.1328125" customWidth="1"/>
+    <col min="4097" max="4097" width="2.59765625" customWidth="1"/>
+    <col min="4099" max="4099" width="111.1328125" customWidth="1"/>
+    <col min="4353" max="4353" width="2.59765625" customWidth="1"/>
+    <col min="4355" max="4355" width="111.1328125" customWidth="1"/>
+    <col min="4609" max="4609" width="2.59765625" customWidth="1"/>
+    <col min="4611" max="4611" width="111.1328125" customWidth="1"/>
+    <col min="4865" max="4865" width="2.59765625" customWidth="1"/>
+    <col min="4867" max="4867" width="111.1328125" customWidth="1"/>
+    <col min="5121" max="5121" width="2.59765625" customWidth="1"/>
+    <col min="5123" max="5123" width="111.1328125" customWidth="1"/>
+    <col min="5377" max="5377" width="2.59765625" customWidth="1"/>
+    <col min="5379" max="5379" width="111.1328125" customWidth="1"/>
+    <col min="5633" max="5633" width="2.59765625" customWidth="1"/>
+    <col min="5635" max="5635" width="111.1328125" customWidth="1"/>
+    <col min="5889" max="5889" width="2.59765625" customWidth="1"/>
+    <col min="5891" max="5891" width="111.1328125" customWidth="1"/>
+    <col min="6145" max="6145" width="2.59765625" customWidth="1"/>
+    <col min="6147" max="6147" width="111.1328125" customWidth="1"/>
+    <col min="6401" max="6401" width="2.59765625" customWidth="1"/>
+    <col min="6403" max="6403" width="111.1328125" customWidth="1"/>
+    <col min="6657" max="6657" width="2.59765625" customWidth="1"/>
+    <col min="6659" max="6659" width="111.1328125" customWidth="1"/>
+    <col min="6913" max="6913" width="2.59765625" customWidth="1"/>
+    <col min="6915" max="6915" width="111.1328125" customWidth="1"/>
+    <col min="7169" max="7169" width="2.59765625" customWidth="1"/>
+    <col min="7171" max="7171" width="111.1328125" customWidth="1"/>
+    <col min="7425" max="7425" width="2.59765625" customWidth="1"/>
+    <col min="7427" max="7427" width="111.1328125" customWidth="1"/>
+    <col min="7681" max="7681" width="2.59765625" customWidth="1"/>
+    <col min="7683" max="7683" width="111.1328125" customWidth="1"/>
+    <col min="7937" max="7937" width="2.59765625" customWidth="1"/>
+    <col min="7939" max="7939" width="111.1328125" customWidth="1"/>
+    <col min="8193" max="8193" width="2.59765625" customWidth="1"/>
+    <col min="8195" max="8195" width="111.1328125" customWidth="1"/>
+    <col min="8449" max="8449" width="2.59765625" customWidth="1"/>
+    <col min="8451" max="8451" width="111.1328125" customWidth="1"/>
+    <col min="8705" max="8705" width="2.59765625" customWidth="1"/>
+    <col min="8707" max="8707" width="111.1328125" customWidth="1"/>
+    <col min="8961" max="8961" width="2.59765625" customWidth="1"/>
+    <col min="8963" max="8963" width="111.1328125" customWidth="1"/>
+    <col min="9217" max="9217" width="2.59765625" customWidth="1"/>
+    <col min="9219" max="9219" width="111.1328125" customWidth="1"/>
+    <col min="9473" max="9473" width="2.59765625" customWidth="1"/>
+    <col min="9475" max="9475" width="111.1328125" customWidth="1"/>
+    <col min="9729" max="9729" width="2.59765625" customWidth="1"/>
+    <col min="9731" max="9731" width="111.1328125" customWidth="1"/>
+    <col min="9985" max="9985" width="2.59765625" customWidth="1"/>
+    <col min="9987" max="9987" width="111.1328125" customWidth="1"/>
+    <col min="10241" max="10241" width="2.59765625" customWidth="1"/>
+    <col min="10243" max="10243" width="111.1328125" customWidth="1"/>
+    <col min="10497" max="10497" width="2.59765625" customWidth="1"/>
+    <col min="10499" max="10499" width="111.1328125" customWidth="1"/>
+    <col min="10753" max="10753" width="2.59765625" customWidth="1"/>
+    <col min="10755" max="10755" width="111.1328125" customWidth="1"/>
+    <col min="11009" max="11009" width="2.59765625" customWidth="1"/>
+    <col min="11011" max="11011" width="111.1328125" customWidth="1"/>
+    <col min="11265" max="11265" width="2.59765625" customWidth="1"/>
+    <col min="11267" max="11267" width="111.1328125" customWidth="1"/>
+    <col min="11521" max="11521" width="2.59765625" customWidth="1"/>
+    <col min="11523" max="11523" width="111.1328125" customWidth="1"/>
+    <col min="11777" max="11777" width="2.59765625" customWidth="1"/>
+    <col min="11779" max="11779" width="111.1328125" customWidth="1"/>
+    <col min="12033" max="12033" width="2.59765625" customWidth="1"/>
+    <col min="12035" max="12035" width="111.1328125" customWidth="1"/>
+    <col min="12289" max="12289" width="2.59765625" customWidth="1"/>
+    <col min="12291" max="12291" width="111.1328125" customWidth="1"/>
+    <col min="12545" max="12545" width="2.59765625" customWidth="1"/>
+    <col min="12547" max="12547" width="111.1328125" customWidth="1"/>
+    <col min="12801" max="12801" width="2.59765625" customWidth="1"/>
+    <col min="12803" max="12803" width="111.1328125" customWidth="1"/>
+    <col min="13057" max="13057" width="2.59765625" customWidth="1"/>
+    <col min="13059" max="13059" width="111.1328125" customWidth="1"/>
+    <col min="13313" max="13313" width="2.59765625" customWidth="1"/>
+    <col min="13315" max="13315" width="111.1328125" customWidth="1"/>
+    <col min="13569" max="13569" width="2.59765625" customWidth="1"/>
+    <col min="13571" max="13571" width="111.1328125" customWidth="1"/>
+    <col min="13825" max="13825" width="2.59765625" customWidth="1"/>
+    <col min="13827" max="13827" width="111.1328125" customWidth="1"/>
+    <col min="14081" max="14081" width="2.59765625" customWidth="1"/>
+    <col min="14083" max="14083" width="111.1328125" customWidth="1"/>
+    <col min="14337" max="14337" width="2.59765625" customWidth="1"/>
+    <col min="14339" max="14339" width="111.1328125" customWidth="1"/>
+    <col min="14593" max="14593" width="2.59765625" customWidth="1"/>
+    <col min="14595" max="14595" width="111.1328125" customWidth="1"/>
+    <col min="14849" max="14849" width="2.59765625" customWidth="1"/>
+    <col min="14851" max="14851" width="111.1328125" customWidth="1"/>
+    <col min="15105" max="15105" width="2.59765625" customWidth="1"/>
+    <col min="15107" max="15107" width="111.1328125" customWidth="1"/>
+    <col min="15361" max="15361" width="2.59765625" customWidth="1"/>
+    <col min="15363" max="15363" width="111.1328125" customWidth="1"/>
+    <col min="15617" max="15617" width="2.59765625" customWidth="1"/>
+    <col min="15619" max="15619" width="111.1328125" customWidth="1"/>
+    <col min="15873" max="15873" width="2.59765625" customWidth="1"/>
+    <col min="15875" max="15875" width="111.1328125" customWidth="1"/>
+    <col min="16129" max="16129" width="2.59765625" customWidth="1"/>
+    <col min="16131" max="16131" width="111.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.45">
       <c r="D1" s="34" t="s">
         <v>5</v>
       </c>
@@ -1021,7 +1036,7 @@
       <c r="U1" s="34"/>
       <c r="V1" s="34"/>
     </row>
-    <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1029,7 +1044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -1038,7 +1053,7 @@
         <v>RPS-0.CO2p-0.05.GasP-1.Nuc-Y.</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -1047,7 +1062,7 @@
         <v>RPS-0.CO2p-0.1.GasP-1.Nuc-Y.</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B5" s="4">
         <f>B4+1</f>
         <v>3</v>
@@ -1057,7 +1072,7 @@
         <v>RPS-0.CO2p-0.15.GasP-1.Nuc-Y.</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B6" s="4">
         <f t="shared" ref="B6:B69" si="0">B5+1</f>
         <v>4</v>
@@ -1067,7 +1082,7 @@
         <v>RPS-0.CO2p-0.2.GasP-1.Nuc-Y.</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1077,7 +1092,7 @@
         <v>RPS-0.CO2p-0.25.GasP-1.Nuc-Y.</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1087,7 +1102,7 @@
         <v>RPS-0.CO2p-0.3.GasP-1.Nuc-Y.</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1097,7 +1112,7 @@
         <v>RPS-0.CO2p-0.35.GasP-1.Nuc-Y.</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1107,7 +1122,7 @@
         <v>RPS-0.CO2p-0.4.GasP-1.Nuc-Y.</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1117,7 +1132,7 @@
         <v>RPS-0.CO2p-0.2.GasP-1.Nuc-Y.</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1127,7 +1142,7 @@
         <v>RPS-0.CO2p-0.2.GasP-1.Nuc-Y.</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1137,7 +1152,7 @@
         <v>RPS-0.CO2p-0.2.GasP-1.Nuc-Y.</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1147,7 +1162,7 @@
         <v>RPS-0.CO2p-0.2.GasP-1.Nuc-Y.</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1157,7 +1172,7 @@
         <v>RPS-0.CO2p-0.05.GasP-0.9.Nuc-Y.</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1167,7 +1182,7 @@
         <v>RPS-0.CO2p-0.1.GasP-0.9.Nuc-Y.</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1177,7 +1192,7 @@
         <v>RPS-0.CO2p-0.15.GasP-0.9.Nuc-Y.</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1187,7 +1202,7 @@
         <v>RPS-0.CO2p-0.2.GasP-0.9.Nuc-Y.</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1197,7 +1212,7 @@
         <v>RPS-0.CO2p-0.25.GasP-0.9.Nuc-Y.</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1207,7 +1222,7 @@
         <v>RPS-0.CO2p-0.3.GasP-0.9.Nuc-Y.</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1217,7 +1232,7 @@
         <v>RPS-0.CO2p-0.35.GasP-0.9.Nuc-Y.</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1227,7 +1242,7 @@
         <v>RPS-0.CO2p-0.4.GasP-0.9.Nuc-Y.</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1237,7 +1252,7 @@
         <v>RPS-0.CO2p-0.2.GasP-0.9.Nuc-Y.</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1247,7 +1262,7 @@
         <v>RPS-0.CO2p-0.2.GasP-0.9.Nuc-Y.</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1257,7 +1272,7 @@
         <v>RPS-0.CO2p-0.2.GasP-0.9.Nuc-Y.</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B26" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1267,7 +1282,7 @@
         <v>RPS-0.CO2p-0.2.GasP-0.9.Nuc-Y.</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1277,7 +1292,7 @@
         <v>RPS-0.CO2p-0.05.GasP-1.1.Nuc-Y.</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B28" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1287,7 +1302,7 @@
         <v>RPS-0.CO2p-0.1.GasP-1.1.Nuc-Y.</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B29" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1297,7 +1312,7 @@
         <v>RPS-0.CO2p-0.15.GasP-1.1.Nuc-Y.</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B30" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1307,7 +1322,7 @@
         <v>RPS-0.CO2p-0.2.GasP-1.1.Nuc-Y.</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B31" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1317,7 +1332,7 @@
         <v>RPS-0.CO2p-0.25.GasP-1.1.Nuc-Y.</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B32" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1327,7 +1342,7 @@
         <v>RPS-0.CO2p-0.3.GasP-1.1.Nuc-Y.</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B33" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1337,7 +1352,7 @@
         <v>RPS-0.CO2p-0.35.GasP-1.1.Nuc-Y.</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B34" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1347,7 +1362,7 @@
         <v>RPS-0.CO2p-0.4.GasP-1.1.Nuc-Y.</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B35" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1357,7 +1372,7 @@
         <v>RPS-0.CO2p-0.2.GasP-1.1.Nuc-Y.</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B36" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1367,7 +1382,7 @@
         <v>RPS-0.CO2p-0.2.GasP-1.1.Nuc-Y.</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B37" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1377,7 +1392,7 @@
         <v>RPS-0.CO2p-0.2.GasP-1.1.Nuc-Y.</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B38" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1387,7 +1402,7 @@
         <v>RPS-0.CO2p-0.2.GasP-1.1.Nuc-Y.</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B39" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1397,7 +1412,7 @@
         <v>RPS-0.CO2p-0.05.GasP-1.Nuc-N.</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B40" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1407,7 +1422,7 @@
         <v>RPS-0.CO2p-0.1.GasP-1.Nuc-N.</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B41" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1417,7 +1432,7 @@
         <v>RPS-0.CO2p-0.15.GasP-1.Nuc-N.</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B42" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1427,7 +1442,7 @@
         <v>RPS-0.CO2p-0.2.GasP-1.Nuc-N.</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B43" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1437,7 +1452,7 @@
         <v>RPS-0.CO2p-0.25.GasP-1.Nuc-N.</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B44" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1447,7 +1462,7 @@
         <v>RPS-0.CO2p-0.3.GasP-1.Nuc-N.</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B45" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1457,7 +1472,7 @@
         <v>RPS-0.CO2p-0.35.GasP-1.Nuc-N.</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B46" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1467,7 +1482,7 @@
         <v>RPS-0.CO2p-0.4.GasP-1.Nuc-N.</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B47" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1477,7 +1492,7 @@
         <v>RPS-0.CO2p-0.2.GasP-1.Nuc-N.</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B48" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1487,7 +1502,7 @@
         <v>RPS-0.CO2p-0.2.GasP-1.Nuc-N.</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B49" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1497,7 +1512,7 @@
         <v>RPS-0.CO2p-0.2.GasP-1.Nuc-N.</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B50" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1507,7 +1522,7 @@
         <v>RPS-0.CO2p-0.2.GasP-1.Nuc-N.</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B51" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1517,7 +1532,7 @@
         <v>RPS-0.CO2p-0.05.GasP-0.9.Nuc-N.</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B52" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1527,7 +1542,7 @@
         <v>RPS-0.CO2p-0.1.GasP-0.9.Nuc-N.</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B53" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -1537,7 +1552,7 @@
         <v>RPS-0.CO2p-0.15.GasP-0.9.Nuc-N.</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B54" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -1547,7 +1562,7 @@
         <v>RPS-0.CO2p-0.2.GasP-0.9.Nuc-N.</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B55" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -1557,7 +1572,7 @@
         <v>RPS-0.CO2p-0.25.GasP-0.9.Nuc-N.</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B56" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -1567,7 +1582,7 @@
         <v>RPS-0.CO2p-0.3.GasP-0.9.Nuc-N.</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B57" s="4">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -1577,7 +1592,7 @@
         <v>RPS-0.CO2p-0.35.GasP-0.9.Nuc-N.</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B58" s="4">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -1587,7 +1602,7 @@
         <v>RPS-0.CO2p-0.4.GasP-0.9.Nuc-N.</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B59" s="4">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -1597,7 +1612,7 @@
         <v>RPS-0.CO2p-0.2.GasP-0.9.Nuc-N.</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B60" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -1607,7 +1622,7 @@
         <v>RPS-0.CO2p-0.2.GasP-0.9.Nuc-N.</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B61" s="4">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -1617,7 +1632,7 @@
         <v>RPS-0.CO2p-0.2.GasP-0.9.Nuc-N.</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B62" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1627,7 +1642,7 @@
         <v>RPS-0.CO2p-0.2.GasP-0.9.Nuc-N.</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B63" s="4">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -1637,7 +1652,7 @@
         <v>RPS-0.CO2p-0.05.GasP-1.1.Nuc-N.</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B64" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -1647,7 +1662,7 @@
         <v>RPS-0.CO2p-0.1.GasP-1.1.Nuc-N.</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B65" s="4">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -1657,7 +1672,7 @@
         <v>RPS-0.CO2p-0.15.GasP-1.1.Nuc-N.</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B66" s="4">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -1667,7 +1682,7 @@
         <v>RPS-0.CO2p-0.2.GasP-1.1.Nuc-N.</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B67" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -1677,7 +1692,7 @@
         <v>RPS-0.CO2p-0.25.GasP-1.1.Nuc-N.</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B68" s="4">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -1687,7 +1702,7 @@
         <v>RPS-0.CO2p-0.3.GasP-1.1.Nuc-N.</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B69" s="4">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -1697,7 +1712,7 @@
         <v>RPS-0.CO2p-0.35.GasP-1.1.Nuc-N.</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B70" s="4">
         <f t="shared" ref="B70:B74" si="1">B69+1</f>
         <v>68</v>
@@ -1707,7 +1722,7 @@
         <v>RPS-0.CO2p-0.4.GasP-1.1.Nuc-N.</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B71" s="4">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -1717,7 +1732,7 @@
         <v>RPS-0.CO2p-0.2.GasP-1.1.Nuc-N.</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B72" s="4">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -1727,7 +1742,7 @@
         <v>RPS-0.CO2p-0.2.GasP-1.1.Nuc-N.</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B73" s="4">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -1737,7 +1752,7 @@
         <v>RPS-0.CO2p-0.2.GasP-1.1.Nuc-N.</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B74" s="4">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -1761,38 +1776,61 @@
   <dimension ref="A1:AA79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.1328125" customWidth="1"/>
+    <col min="7" max="7" width="8.86328125" customWidth="1"/>
+    <col min="8" max="8" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.1328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.1328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="L3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="C5" s="11">
         <f>VLOOKUP($A$2,$B$8:$F$198,C6,FALSE)</f>
         <v>0</v>
@@ -1813,7 +1851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="15.75" x14ac:dyDescent="0.5">
       <c r="C6" s="12">
         <v>2</v>
       </c>
@@ -1842,7 +1880,7 @@
       <c r="S6" s="26"/>
       <c r="T6" s="26"/>
     </row>
-    <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B7" s="13" t="s">
         <v>4</v>
       </c>
@@ -1870,7 +1908,7 @@
       <c r="Z7" s="24"/>
       <c r="AA7" s="24"/>
     </row>
-    <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B8" s="13">
         <v>1</v>
       </c>
@@ -1937,7 +1975,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B9" s="13">
         <v>2</v>
       </c>
@@ -2007,7 +2045,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B10" s="13">
         <v>3</v>
       </c>
@@ -2041,7 +2079,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B11" s="13">
         <v>4</v>
       </c>
@@ -2075,7 +2113,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B12" s="13">
         <v>5</v>
       </c>
@@ -2109,7 +2147,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B13" s="13">
         <v>6</v>
       </c>
@@ -2157,7 +2195,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B14" s="13">
         <v>7</v>
       </c>
@@ -2195,7 +2233,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="13">
         <v>8</v>
       </c>
@@ -2250,7 +2288,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B16" s="13">
         <v>9</v>
       </c>
@@ -2297,7 +2335,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="17" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B17" s="13">
         <v>10</v>
       </c>
@@ -2346,7 +2384,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="18" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:27" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="13">
         <v>11</v>
       </c>
@@ -2397,7 +2435,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="19" spans="2:27" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:27" ht="16.149999999999999" thickTop="1" x14ac:dyDescent="0.5">
       <c r="B19" s="13">
         <v>12</v>
       </c>
@@ -2446,7 +2484,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="20" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B20" s="13">
         <v>13</v>
       </c>
@@ -2481,7 +2519,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="21" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:27" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B21" s="13">
         <v>14</v>
       </c>
@@ -2516,7 +2554,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="22" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B22" s="13">
         <v>15</v>
       </c>
@@ -2565,7 +2603,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="23" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:27" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B23" s="13">
         <v>16</v>
       </c>
@@ -2605,7 +2643,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="24" spans="2:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:27" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="13">
         <v>17</v>
       </c>
@@ -2664,7 +2702,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="25" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:27" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B25" s="13">
         <v>18</v>
       </c>
@@ -2713,7 +2751,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="26" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:27" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B26" s="13">
         <v>19</v>
       </c>
@@ -2748,7 +2786,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="27" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:27" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B27" s="13">
         <v>20</v>
       </c>
@@ -2783,7 +2821,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="28" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:27" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B28" s="13">
         <v>21</v>
       </c>
@@ -2818,7 +2856,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="29" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:27" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B29" s="13">
         <v>22</v>
       </c>
@@ -2867,7 +2905,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B30" s="13">
         <v>23</v>
       </c>
@@ -2905,7 +2943,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="31" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B31" s="13">
         <v>24</v>
       </c>
@@ -2954,7 +2992,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B32" s="13">
         <v>25</v>
       </c>
@@ -2997,7 +3035,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B33" s="13">
         <v>26</v>
       </c>
@@ -3031,7 +3069,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B34" s="13">
         <v>27</v>
       </c>
@@ -3065,7 +3103,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B35" s="13">
         <v>28</v>
       </c>
@@ -3099,7 +3137,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B36" s="13">
         <v>29</v>
       </c>
@@ -3133,7 +3171,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B37" s="13">
         <v>30</v>
       </c>
@@ -3167,7 +3205,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B38" s="13">
         <v>31</v>
       </c>
@@ -3201,7 +3239,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B39" s="13">
         <v>32</v>
       </c>
@@ -3235,7 +3273,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B40" s="13">
         <v>33</v>
       </c>
@@ -3269,7 +3307,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B41" s="13">
         <v>34</v>
       </c>
@@ -3303,7 +3341,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B42" s="13">
         <v>35</v>
       </c>
@@ -3337,7 +3375,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B43" s="13">
         <v>36</v>
       </c>
@@ -3371,7 +3409,7 @@
         <v>Nuc-Y.</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B44" s="13">
         <v>37</v>
       </c>
@@ -3406,7 +3444,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B45" s="13">
         <v>38</v>
       </c>
@@ -3441,7 +3479,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B46" s="13">
         <v>39</v>
       </c>
@@ -3476,7 +3514,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B47" s="13">
         <v>40</v>
       </c>
@@ -3511,7 +3549,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B48" s="13">
         <v>41</v>
       </c>
@@ -3546,7 +3584,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B49" s="13">
         <v>42</v>
       </c>
@@ -3581,7 +3619,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B50" s="13">
         <v>43</v>
       </c>
@@ -3616,7 +3654,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B51" s="13">
         <v>44</v>
       </c>
@@ -3651,7 +3689,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B52" s="13">
         <v>45</v>
       </c>
@@ -3686,7 +3724,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B53" s="13">
         <v>46</v>
       </c>
@@ -3721,7 +3759,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B54" s="13">
         <v>47</v>
       </c>
@@ -3756,7 +3794,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B55" s="13">
         <v>48</v>
       </c>
@@ -3791,7 +3829,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B56" s="13">
         <v>49</v>
       </c>
@@ -3826,7 +3864,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B57" s="13">
         <v>50</v>
       </c>
@@ -3861,7 +3899,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B58" s="13">
         <v>51</v>
       </c>
@@ -3896,7 +3934,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B59" s="13">
         <v>52</v>
       </c>
@@ -3931,7 +3969,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B60" s="13">
         <v>53</v>
       </c>
@@ -3966,7 +4004,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B61" s="13">
         <v>54</v>
       </c>
@@ -4001,7 +4039,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B62" s="13">
         <v>55</v>
       </c>
@@ -4036,7 +4074,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B63" s="13">
         <v>56</v>
       </c>
@@ -4071,7 +4109,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B64" s="13">
         <v>57</v>
       </c>
@@ -4106,7 +4144,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B65" s="13">
         <v>58</v>
       </c>
@@ -4141,7 +4179,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B66" s="13">
         <v>59</v>
       </c>
@@ -4176,7 +4214,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B67" s="13">
         <v>60</v>
       </c>
@@ -4211,7 +4249,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B68" s="13">
         <v>61</v>
       </c>
@@ -4246,7 +4284,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B69" s="13">
         <v>62</v>
       </c>
@@ -4281,7 +4319,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B70" s="13">
         <v>63</v>
       </c>
@@ -4316,7 +4354,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B71" s="13">
         <v>64</v>
       </c>
@@ -4351,7 +4389,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B72" s="13">
         <v>65</v>
       </c>
@@ -4386,7 +4424,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B73" s="13">
         <v>66</v>
       </c>
@@ -4421,7 +4459,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B74" s="13">
         <v>67</v>
       </c>
@@ -4456,7 +4494,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B75" s="13">
         <v>68</v>
       </c>
@@ -4491,7 +4529,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B76" s="13">
         <v>69</v>
       </c>
@@ -4526,7 +4564,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B77" s="13">
         <v>70</v>
       </c>
@@ -4561,7 +4599,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="78" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B78" s="13">
         <v>71</v>
       </c>
@@ -4596,7 +4634,7 @@
         <v>Nuc-N.</v>
       </c>
     </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:27" x14ac:dyDescent="0.45">
       <c r="B79" s="13">
         <v>72</v>
       </c>
@@ -4644,12 +4682,12 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -4658,7 +4696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
@@ -4667,7 +4705,7 @@
         <v>1,2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4676,7 +4714,7 @@
         <v>1,2,3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>4</v>
       </c>
@@ -4685,7 +4723,7 @@
         <v>1,2,3,4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>13</v>
       </c>
@@ -4694,7 +4732,7 @@
         <v>1,2,3,4,13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>14</v>
       </c>
@@ -4703,7 +4741,7 @@
         <v>1,2,3,4,13,14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>15</v>
       </c>
@@ -4712,7 +4750,7 @@
         <v>1,2,3,4,13,14,15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>16</v>
       </c>
@@ -4721,7 +4759,7 @@
         <v>1,2,3,4,13,14,15,16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>25</v>
       </c>
@@ -4730,7 +4768,7 @@
         <v>1,2,3,4,13,14,15,16,25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>26</v>
       </c>
@@ -4739,7 +4777,7 @@
         <v>1,2,3,4,13,14,15,16,25,26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>27</v>
       </c>
@@ -4748,7 +4786,7 @@
         <v>1,2,3,4,13,14,15,16,25,26,27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>28</v>
       </c>
@@ -4757,7 +4795,7 @@
         <v>1,2,3,4,13,14,15,16,25,26,27,28</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>37</v>
       </c>
@@ -4766,7 +4804,7 @@
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>38</v>
       </c>
@@ -4775,7 +4813,7 @@
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>39</v>
       </c>
@@ -4784,7 +4822,7 @@
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>40</v>
       </c>
@@ -4793,7 +4831,7 @@
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>49</v>
       </c>
@@ -4802,7 +4840,7 @@
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>50</v>
       </c>
@@ -4811,7 +4849,7 @@
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>51</v>
       </c>
@@ -4820,7 +4858,7 @@
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>52</v>
       </c>
@@ -4829,7 +4867,7 @@
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>61</v>
       </c>
@@ -4838,7 +4876,7 @@
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>62</v>
       </c>
@@ -4847,7 +4885,7 @@
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>63</v>
       </c>
@@ -4856,7 +4894,7 @@
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>64</v>
       </c>
@@ -4865,463 +4903,463 @@
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B36" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B43" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B44" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B45" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B46" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B47" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B48" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B49" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B50" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B51" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B52" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B53" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B54" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B55" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B56" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B57" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B58" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B59" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B60" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B61" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B62" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B63" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B64" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B65" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B66" t="str">
         <f t="shared" si="0"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B67" t="str">
         <f t="shared" ref="B67:B101" si="1">B66&amp;","&amp;A67</f>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B68" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B69" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B70" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B71" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B72" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B73" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B74" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B75" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B76" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B77" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B78" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B79" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B80" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B81" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B82" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B83" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B84" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B85" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B86" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B87" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B88" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B89" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B90" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B91" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B92" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B93" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B94" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B95" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B96" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B97" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B98" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B99" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B100" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B101" t="str">
         <f t="shared" si="1"/>
         <v>1,2,3,4,13,14,15,16,25,26,27,28,37,38,39,40,49,50,51,52,61,62,63,64,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,,</v>

--- a/suppxls/Scen_Par-RPS_CO2p_GasP_Nuc.xlsx
+++ b/suppxls/Scen_Par-RPS_CO2p_GasP_Nuc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\Model_Demo_Adv_Veda_Nov22\suppxls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\Model_Demo_Adv_Veda_Jun2024\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3210319-52CA-43A9-9C23-73B26913B9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B331FC-E5CA-4257-8071-830B14252F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3645" yWindow="3645" windowWidth="21600" windowHeight="12683" activeTab="1" xr2:uid="{E4274E74-7A86-476E-8D8F-2DC29368AA80}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{E4274E74-7A86-476E-8D8F-2DC29368AA80}"/>
   </bookViews>
   <sheets>
     <sheet name="CaseDesc" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="53">
   <si>
     <t>Cset_CN</t>
   </si>
@@ -183,9 +183,6 @@
     <t>START</t>
   </si>
   <si>
-    <t>~InputCell: 4,6,8</t>
-  </si>
-  <si>
     <t>attribute</t>
   </si>
   <si>
@@ -199,6 +196,12 @@
   </si>
   <si>
     <t>RFCmd_flags</t>
+  </si>
+  <si>
+    <t>*REG2</t>
+  </si>
+  <si>
+    <t>~InputCell: 1-10</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1053,7 @@
       </c>
       <c r="C3" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X8&amp;'RPS-CO2p_GasP-Nuc'!Y8&amp;'RPS-CO2p_GasP-Nuc'!Z8&amp;'RPS-CO2p_GasP-Nuc'!AA8</f>
-        <v>RPS-0.CO2p-0.05.GasP-1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.GasP-1.Nuc-Y.</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.45">
@@ -1059,7 +1062,7 @@
       </c>
       <c r="C4" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X9&amp;'RPS-CO2p_GasP-Nuc'!Y9&amp;'RPS-CO2p_GasP-Nuc'!Z9&amp;'RPS-CO2p_GasP-Nuc'!AA9</f>
-        <v>RPS-0.CO2p-0.1.GasP-1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.05.GasP-1.Nuc-Y.</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.45">
@@ -1069,7 +1072,7 @@
       </c>
       <c r="C5" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X10&amp;'RPS-CO2p_GasP-Nuc'!Y10&amp;'RPS-CO2p_GasP-Nuc'!Z10&amp;'RPS-CO2p_GasP-Nuc'!AA10</f>
-        <v>RPS-0.CO2p-0.15.GasP-1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.1.GasP-1.Nuc-Y.</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.45">
@@ -1079,7 +1082,7 @@
       </c>
       <c r="C6" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X11&amp;'RPS-CO2p_GasP-Nuc'!Y11&amp;'RPS-CO2p_GasP-Nuc'!Z11&amp;'RPS-CO2p_GasP-Nuc'!AA11</f>
-        <v>RPS-0.CO2p-0.2.GasP-1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.15.GasP-1.Nuc-Y.</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.45">
@@ -1089,7 +1092,7 @@
       </c>
       <c r="C7" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X12&amp;'RPS-CO2p_GasP-Nuc'!Y12&amp;'RPS-CO2p_GasP-Nuc'!Z12&amp;'RPS-CO2p_GasP-Nuc'!AA12</f>
-        <v>RPS-0.CO2p-0.25.GasP-1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.2.GasP-1.Nuc-Y.</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.45">
@@ -1099,7 +1102,7 @@
       </c>
       <c r="C8" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X13&amp;'RPS-CO2p_GasP-Nuc'!Y13&amp;'RPS-CO2p_GasP-Nuc'!Z13&amp;'RPS-CO2p_GasP-Nuc'!AA13</f>
-        <v>RPS-0.CO2p-0.3.GasP-1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.25.GasP-1.Nuc-Y.</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.45">
@@ -1109,7 +1112,7 @@
       </c>
       <c r="C9" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X14&amp;'RPS-CO2p_GasP-Nuc'!Y14&amp;'RPS-CO2p_GasP-Nuc'!Z14&amp;'RPS-CO2p_GasP-Nuc'!AA14</f>
-        <v>RPS-0.CO2p-0.35.GasP-1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.3.GasP-1.Nuc-Y.</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.45">
@@ -1119,7 +1122,7 @@
       </c>
       <c r="C10" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X15&amp;'RPS-CO2p_GasP-Nuc'!Y15&amp;'RPS-CO2p_GasP-Nuc'!Z15&amp;'RPS-CO2p_GasP-Nuc'!AA15</f>
-        <v>RPS-0.CO2p-0.4.GasP-1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.35.GasP-1.Nuc-Y.</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.45">
@@ -1129,7 +1132,7 @@
       </c>
       <c r="C11" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X16&amp;'RPS-CO2p_GasP-Nuc'!Y16&amp;'RPS-CO2p_GasP-Nuc'!Z16&amp;'RPS-CO2p_GasP-Nuc'!AA16</f>
-        <v>RPS-0.CO2p-0.2.GasP-1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.4.GasP-1.Nuc-Y.</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.45">
@@ -1139,7 +1142,7 @@
       </c>
       <c r="C12" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X17&amp;'RPS-CO2p_GasP-Nuc'!Y17&amp;'RPS-CO2p_GasP-Nuc'!Z17&amp;'RPS-CO2p_GasP-Nuc'!AA17</f>
-        <v>RPS-0.CO2p-0.2.GasP-1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.45.GasP-1.Nuc-Y.</v>
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.45">
@@ -1169,7 +1172,7 @@
       </c>
       <c r="C15" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X20&amp;'RPS-CO2p_GasP-Nuc'!Y20&amp;'RPS-CO2p_GasP-Nuc'!Z20&amp;'RPS-CO2p_GasP-Nuc'!AA20</f>
-        <v>RPS-0.CO2p-0.05.GasP-0.9.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.GasP-0.9.Nuc-Y.</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.45">
@@ -1179,7 +1182,7 @@
       </c>
       <c r="C16" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X21&amp;'RPS-CO2p_GasP-Nuc'!Y21&amp;'RPS-CO2p_GasP-Nuc'!Z21&amp;'RPS-CO2p_GasP-Nuc'!AA21</f>
-        <v>RPS-0.CO2p-0.1.GasP-0.9.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.05.GasP-0.9.Nuc-Y.</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
@@ -1189,7 +1192,7 @@
       </c>
       <c r="C17" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X22&amp;'RPS-CO2p_GasP-Nuc'!Y22&amp;'RPS-CO2p_GasP-Nuc'!Z22&amp;'RPS-CO2p_GasP-Nuc'!AA22</f>
-        <v>RPS-0.CO2p-0.15.GasP-0.9.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.1.GasP-0.9.Nuc-Y.</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.45">
@@ -1199,7 +1202,7 @@
       </c>
       <c r="C18" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X23&amp;'RPS-CO2p_GasP-Nuc'!Y23&amp;'RPS-CO2p_GasP-Nuc'!Z23&amp;'RPS-CO2p_GasP-Nuc'!AA23</f>
-        <v>RPS-0.CO2p-0.2.GasP-0.9.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.15.GasP-0.9.Nuc-Y.</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.45">
@@ -1209,7 +1212,7 @@
       </c>
       <c r="C19" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X24&amp;'RPS-CO2p_GasP-Nuc'!Y24&amp;'RPS-CO2p_GasP-Nuc'!Z24&amp;'RPS-CO2p_GasP-Nuc'!AA24</f>
-        <v>RPS-0.CO2p-0.25.GasP-0.9.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.2.GasP-0.9.Nuc-Y.</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.45">
@@ -1219,7 +1222,7 @@
       </c>
       <c r="C20" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X25&amp;'RPS-CO2p_GasP-Nuc'!Y25&amp;'RPS-CO2p_GasP-Nuc'!Z25&amp;'RPS-CO2p_GasP-Nuc'!AA25</f>
-        <v>RPS-0.CO2p-0.3.GasP-0.9.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.25.GasP-0.9.Nuc-Y.</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.45">
@@ -1229,7 +1232,7 @@
       </c>
       <c r="C21" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X26&amp;'RPS-CO2p_GasP-Nuc'!Y26&amp;'RPS-CO2p_GasP-Nuc'!Z26&amp;'RPS-CO2p_GasP-Nuc'!AA26</f>
-        <v>RPS-0.CO2p-0.35.GasP-0.9.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.3.GasP-0.9.Nuc-Y.</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.45">
@@ -1239,7 +1242,7 @@
       </c>
       <c r="C22" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X27&amp;'RPS-CO2p_GasP-Nuc'!Y27&amp;'RPS-CO2p_GasP-Nuc'!Z27&amp;'RPS-CO2p_GasP-Nuc'!AA27</f>
-        <v>RPS-0.CO2p-0.4.GasP-0.9.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.35.GasP-0.9.Nuc-Y.</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.45">
@@ -1249,7 +1252,7 @@
       </c>
       <c r="C23" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X28&amp;'RPS-CO2p_GasP-Nuc'!Y28&amp;'RPS-CO2p_GasP-Nuc'!Z28&amp;'RPS-CO2p_GasP-Nuc'!AA28</f>
-        <v>RPS-0.CO2p-0.2.GasP-0.9.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.4.GasP-0.9.Nuc-Y.</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.45">
@@ -1259,7 +1262,7 @@
       </c>
       <c r="C24" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X29&amp;'RPS-CO2p_GasP-Nuc'!Y29&amp;'RPS-CO2p_GasP-Nuc'!Z29&amp;'RPS-CO2p_GasP-Nuc'!AA29</f>
-        <v>RPS-0.CO2p-0.2.GasP-0.9.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.45.GasP-0.9.Nuc-Y.</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.45">
@@ -1289,7 +1292,7 @@
       </c>
       <c r="C27" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X32&amp;'RPS-CO2p_GasP-Nuc'!Y32&amp;'RPS-CO2p_GasP-Nuc'!Z32&amp;'RPS-CO2p_GasP-Nuc'!AA32</f>
-        <v>RPS-0.CO2p-0.05.GasP-1.1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.GasP-1.1.Nuc-Y.</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.45">
@@ -1299,7 +1302,7 @@
       </c>
       <c r="C28" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X33&amp;'RPS-CO2p_GasP-Nuc'!Y33&amp;'RPS-CO2p_GasP-Nuc'!Z33&amp;'RPS-CO2p_GasP-Nuc'!AA33</f>
-        <v>RPS-0.CO2p-0.1.GasP-1.1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.05.GasP-1.1.Nuc-Y.</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.45">
@@ -1309,7 +1312,7 @@
       </c>
       <c r="C29" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X34&amp;'RPS-CO2p_GasP-Nuc'!Y34&amp;'RPS-CO2p_GasP-Nuc'!Z34&amp;'RPS-CO2p_GasP-Nuc'!AA34</f>
-        <v>RPS-0.CO2p-0.15.GasP-1.1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.1.GasP-1.1.Nuc-Y.</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.45">
@@ -1319,7 +1322,7 @@
       </c>
       <c r="C30" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X35&amp;'RPS-CO2p_GasP-Nuc'!Y35&amp;'RPS-CO2p_GasP-Nuc'!Z35&amp;'RPS-CO2p_GasP-Nuc'!AA35</f>
-        <v>RPS-0.CO2p-0.2.GasP-1.1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.15.GasP-1.1.Nuc-Y.</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.45">
@@ -1329,7 +1332,7 @@
       </c>
       <c r="C31" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X36&amp;'RPS-CO2p_GasP-Nuc'!Y36&amp;'RPS-CO2p_GasP-Nuc'!Z36&amp;'RPS-CO2p_GasP-Nuc'!AA36</f>
-        <v>RPS-0.CO2p-0.25.GasP-1.1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.2.GasP-1.1.Nuc-Y.</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.45">
@@ -1339,7 +1342,7 @@
       </c>
       <c r="C32" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X37&amp;'RPS-CO2p_GasP-Nuc'!Y37&amp;'RPS-CO2p_GasP-Nuc'!Z37&amp;'RPS-CO2p_GasP-Nuc'!AA37</f>
-        <v>RPS-0.CO2p-0.3.GasP-1.1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.25.GasP-1.1.Nuc-Y.</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.45">
@@ -1349,7 +1352,7 @@
       </c>
       <c r="C33" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X38&amp;'RPS-CO2p_GasP-Nuc'!Y38&amp;'RPS-CO2p_GasP-Nuc'!Z38&amp;'RPS-CO2p_GasP-Nuc'!AA38</f>
-        <v>RPS-0.CO2p-0.35.GasP-1.1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.3.GasP-1.1.Nuc-Y.</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.45">
@@ -1359,7 +1362,7 @@
       </c>
       <c r="C34" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X39&amp;'RPS-CO2p_GasP-Nuc'!Y39&amp;'RPS-CO2p_GasP-Nuc'!Z39&amp;'RPS-CO2p_GasP-Nuc'!AA39</f>
-        <v>RPS-0.CO2p-0.4.GasP-1.1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.35.GasP-1.1.Nuc-Y.</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.45">
@@ -1369,7 +1372,7 @@
       </c>
       <c r="C35" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X40&amp;'RPS-CO2p_GasP-Nuc'!Y40&amp;'RPS-CO2p_GasP-Nuc'!Z40&amp;'RPS-CO2p_GasP-Nuc'!AA40</f>
-        <v>RPS-0.CO2p-0.2.GasP-1.1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.4.GasP-1.1.Nuc-Y.</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.45">
@@ -1379,7 +1382,7 @@
       </c>
       <c r="C36" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X41&amp;'RPS-CO2p_GasP-Nuc'!Y41&amp;'RPS-CO2p_GasP-Nuc'!Z41&amp;'RPS-CO2p_GasP-Nuc'!AA41</f>
-        <v>RPS-0.CO2p-0.2.GasP-1.1.Nuc-Y.</v>
+        <v>RPS-0.CO2p-0.45.GasP-1.1.Nuc-Y.</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.45">
@@ -1409,7 +1412,7 @@
       </c>
       <c r="C39" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X44&amp;'RPS-CO2p_GasP-Nuc'!Y44&amp;'RPS-CO2p_GasP-Nuc'!Z44&amp;'RPS-CO2p_GasP-Nuc'!AA44</f>
-        <v>RPS-0.CO2p-0.05.GasP-1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.GasP-1.Nuc-N.</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.45">
@@ -1419,7 +1422,7 @@
       </c>
       <c r="C40" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X45&amp;'RPS-CO2p_GasP-Nuc'!Y45&amp;'RPS-CO2p_GasP-Nuc'!Z45&amp;'RPS-CO2p_GasP-Nuc'!AA45</f>
-        <v>RPS-0.CO2p-0.1.GasP-1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.05.GasP-1.Nuc-N.</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.45">
@@ -1429,7 +1432,7 @@
       </c>
       <c r="C41" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X46&amp;'RPS-CO2p_GasP-Nuc'!Y46&amp;'RPS-CO2p_GasP-Nuc'!Z46&amp;'RPS-CO2p_GasP-Nuc'!AA46</f>
-        <v>RPS-0.CO2p-0.15.GasP-1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.1.GasP-1.Nuc-N.</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.45">
@@ -1439,7 +1442,7 @@
       </c>
       <c r="C42" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X47&amp;'RPS-CO2p_GasP-Nuc'!Y47&amp;'RPS-CO2p_GasP-Nuc'!Z47&amp;'RPS-CO2p_GasP-Nuc'!AA47</f>
-        <v>RPS-0.CO2p-0.2.GasP-1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.15.GasP-1.Nuc-N.</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.45">
@@ -1449,7 +1452,7 @@
       </c>
       <c r="C43" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X48&amp;'RPS-CO2p_GasP-Nuc'!Y48&amp;'RPS-CO2p_GasP-Nuc'!Z48&amp;'RPS-CO2p_GasP-Nuc'!AA48</f>
-        <v>RPS-0.CO2p-0.25.GasP-1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.2.GasP-1.Nuc-N.</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.45">
@@ -1459,7 +1462,7 @@
       </c>
       <c r="C44" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X49&amp;'RPS-CO2p_GasP-Nuc'!Y49&amp;'RPS-CO2p_GasP-Nuc'!Z49&amp;'RPS-CO2p_GasP-Nuc'!AA49</f>
-        <v>RPS-0.CO2p-0.3.GasP-1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.25.GasP-1.Nuc-N.</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.45">
@@ -1469,7 +1472,7 @@
       </c>
       <c r="C45" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X50&amp;'RPS-CO2p_GasP-Nuc'!Y50&amp;'RPS-CO2p_GasP-Nuc'!Z50&amp;'RPS-CO2p_GasP-Nuc'!AA50</f>
-        <v>RPS-0.CO2p-0.35.GasP-1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.3.GasP-1.Nuc-N.</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.45">
@@ -1479,7 +1482,7 @@
       </c>
       <c r="C46" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X51&amp;'RPS-CO2p_GasP-Nuc'!Y51&amp;'RPS-CO2p_GasP-Nuc'!Z51&amp;'RPS-CO2p_GasP-Nuc'!AA51</f>
-        <v>RPS-0.CO2p-0.4.GasP-1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.35.GasP-1.Nuc-N.</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.45">
@@ -1489,7 +1492,7 @@
       </c>
       <c r="C47" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X52&amp;'RPS-CO2p_GasP-Nuc'!Y52&amp;'RPS-CO2p_GasP-Nuc'!Z52&amp;'RPS-CO2p_GasP-Nuc'!AA52</f>
-        <v>RPS-0.CO2p-0.2.GasP-1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.4.GasP-1.Nuc-N.</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.45">
@@ -1499,7 +1502,7 @@
       </c>
       <c r="C48" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X53&amp;'RPS-CO2p_GasP-Nuc'!Y53&amp;'RPS-CO2p_GasP-Nuc'!Z53&amp;'RPS-CO2p_GasP-Nuc'!AA53</f>
-        <v>RPS-0.CO2p-0.2.GasP-1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.45.GasP-1.Nuc-N.</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.45">
@@ -1529,7 +1532,7 @@
       </c>
       <c r="C51" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X56&amp;'RPS-CO2p_GasP-Nuc'!Y56&amp;'RPS-CO2p_GasP-Nuc'!Z56&amp;'RPS-CO2p_GasP-Nuc'!AA56</f>
-        <v>RPS-0.CO2p-0.05.GasP-0.9.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.GasP-0.9.Nuc-N.</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.45">
@@ -1539,7 +1542,7 @@
       </c>
       <c r="C52" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X57&amp;'RPS-CO2p_GasP-Nuc'!Y57&amp;'RPS-CO2p_GasP-Nuc'!Z57&amp;'RPS-CO2p_GasP-Nuc'!AA57</f>
-        <v>RPS-0.CO2p-0.1.GasP-0.9.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.05.GasP-0.9.Nuc-N.</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.45">
@@ -1549,7 +1552,7 @@
       </c>
       <c r="C53" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X58&amp;'RPS-CO2p_GasP-Nuc'!Y58&amp;'RPS-CO2p_GasP-Nuc'!Z58&amp;'RPS-CO2p_GasP-Nuc'!AA58</f>
-        <v>RPS-0.CO2p-0.15.GasP-0.9.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.1.GasP-0.9.Nuc-N.</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.45">
@@ -1559,7 +1562,7 @@
       </c>
       <c r="C54" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X59&amp;'RPS-CO2p_GasP-Nuc'!Y59&amp;'RPS-CO2p_GasP-Nuc'!Z59&amp;'RPS-CO2p_GasP-Nuc'!AA59</f>
-        <v>RPS-0.CO2p-0.2.GasP-0.9.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.15.GasP-0.9.Nuc-N.</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.45">
@@ -1569,7 +1572,7 @@
       </c>
       <c r="C55" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X60&amp;'RPS-CO2p_GasP-Nuc'!Y60&amp;'RPS-CO2p_GasP-Nuc'!Z60&amp;'RPS-CO2p_GasP-Nuc'!AA60</f>
-        <v>RPS-0.CO2p-0.25.GasP-0.9.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.2.GasP-0.9.Nuc-N.</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.45">
@@ -1579,7 +1582,7 @@
       </c>
       <c r="C56" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X61&amp;'RPS-CO2p_GasP-Nuc'!Y61&amp;'RPS-CO2p_GasP-Nuc'!Z61&amp;'RPS-CO2p_GasP-Nuc'!AA61</f>
-        <v>RPS-0.CO2p-0.3.GasP-0.9.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.25.GasP-0.9.Nuc-N.</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.45">
@@ -1589,7 +1592,7 @@
       </c>
       <c r="C57" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X62&amp;'RPS-CO2p_GasP-Nuc'!Y62&amp;'RPS-CO2p_GasP-Nuc'!Z62&amp;'RPS-CO2p_GasP-Nuc'!AA62</f>
-        <v>RPS-0.CO2p-0.35.GasP-0.9.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.3.GasP-0.9.Nuc-N.</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.45">
@@ -1599,7 +1602,7 @@
       </c>
       <c r="C58" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X63&amp;'RPS-CO2p_GasP-Nuc'!Y63&amp;'RPS-CO2p_GasP-Nuc'!Z63&amp;'RPS-CO2p_GasP-Nuc'!AA63</f>
-        <v>RPS-0.CO2p-0.4.GasP-0.9.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.35.GasP-0.9.Nuc-N.</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.45">
@@ -1609,7 +1612,7 @@
       </c>
       <c r="C59" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X64&amp;'RPS-CO2p_GasP-Nuc'!Y64&amp;'RPS-CO2p_GasP-Nuc'!Z64&amp;'RPS-CO2p_GasP-Nuc'!AA64</f>
-        <v>RPS-0.CO2p-0.2.GasP-0.9.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.4.GasP-0.9.Nuc-N.</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.45">
@@ -1619,7 +1622,7 @@
       </c>
       <c r="C60" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X65&amp;'RPS-CO2p_GasP-Nuc'!Y65&amp;'RPS-CO2p_GasP-Nuc'!Z65&amp;'RPS-CO2p_GasP-Nuc'!AA65</f>
-        <v>RPS-0.CO2p-0.2.GasP-0.9.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.45.GasP-0.9.Nuc-N.</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.45">
@@ -1649,7 +1652,7 @@
       </c>
       <c r="C63" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X68&amp;'RPS-CO2p_GasP-Nuc'!Y68&amp;'RPS-CO2p_GasP-Nuc'!Z68&amp;'RPS-CO2p_GasP-Nuc'!AA68</f>
-        <v>RPS-0.CO2p-0.05.GasP-1.1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.GasP-1.1.Nuc-N.</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.45">
@@ -1659,7 +1662,7 @@
       </c>
       <c r="C64" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X69&amp;'RPS-CO2p_GasP-Nuc'!Y69&amp;'RPS-CO2p_GasP-Nuc'!Z69&amp;'RPS-CO2p_GasP-Nuc'!AA69</f>
-        <v>RPS-0.CO2p-0.1.GasP-1.1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.05.GasP-1.1.Nuc-N.</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.45">
@@ -1669,7 +1672,7 @@
       </c>
       <c r="C65" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X70&amp;'RPS-CO2p_GasP-Nuc'!Y70&amp;'RPS-CO2p_GasP-Nuc'!Z70&amp;'RPS-CO2p_GasP-Nuc'!AA70</f>
-        <v>RPS-0.CO2p-0.15.GasP-1.1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.1.GasP-1.1.Nuc-N.</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.45">
@@ -1679,7 +1682,7 @@
       </c>
       <c r="C66" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X71&amp;'RPS-CO2p_GasP-Nuc'!Y71&amp;'RPS-CO2p_GasP-Nuc'!Z71&amp;'RPS-CO2p_GasP-Nuc'!AA71</f>
-        <v>RPS-0.CO2p-0.2.GasP-1.1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.15.GasP-1.1.Nuc-N.</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.45">
@@ -1689,7 +1692,7 @@
       </c>
       <c r="C67" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X72&amp;'RPS-CO2p_GasP-Nuc'!Y72&amp;'RPS-CO2p_GasP-Nuc'!Z72&amp;'RPS-CO2p_GasP-Nuc'!AA72</f>
-        <v>RPS-0.CO2p-0.25.GasP-1.1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.2.GasP-1.1.Nuc-N.</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.45">
@@ -1699,7 +1702,7 @@
       </c>
       <c r="C68" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X73&amp;'RPS-CO2p_GasP-Nuc'!Y73&amp;'RPS-CO2p_GasP-Nuc'!Z73&amp;'RPS-CO2p_GasP-Nuc'!AA73</f>
-        <v>RPS-0.CO2p-0.3.GasP-1.1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.25.GasP-1.1.Nuc-N.</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.45">
@@ -1709,7 +1712,7 @@
       </c>
       <c r="C69" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X74&amp;'RPS-CO2p_GasP-Nuc'!Y74&amp;'RPS-CO2p_GasP-Nuc'!Z74&amp;'RPS-CO2p_GasP-Nuc'!AA74</f>
-        <v>RPS-0.CO2p-0.35.GasP-1.1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.3.GasP-1.1.Nuc-N.</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.45">
@@ -1719,7 +1722,7 @@
       </c>
       <c r="C70" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X75&amp;'RPS-CO2p_GasP-Nuc'!Y75&amp;'RPS-CO2p_GasP-Nuc'!Z75&amp;'RPS-CO2p_GasP-Nuc'!AA75</f>
-        <v>RPS-0.CO2p-0.4.GasP-1.1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.35.GasP-1.1.Nuc-N.</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.45">
@@ -1729,7 +1732,7 @@
       </c>
       <c r="C71" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X76&amp;'RPS-CO2p_GasP-Nuc'!Y76&amp;'RPS-CO2p_GasP-Nuc'!Z76&amp;'RPS-CO2p_GasP-Nuc'!AA76</f>
-        <v>RPS-0.CO2p-0.2.GasP-1.1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.4.GasP-1.1.Nuc-N.</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.45">
@@ -1739,7 +1742,7 @@
       </c>
       <c r="C72" s="5" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!X77&amp;'RPS-CO2p_GasP-Nuc'!Y77&amp;'RPS-CO2p_GasP-Nuc'!Z77&amp;'RPS-CO2p_GasP-Nuc'!AA77</f>
-        <v>RPS-0.CO2p-0.2.GasP-1.1.Nuc-N.</v>
+        <v>RPS-0.CO2p-0.45.GasP-1.1.Nuc-N.</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.45">
@@ -1776,7 +1779,7 @@
   <dimension ref="A1:AA79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1799,7 +1802,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L1" t="s">
         <v>23</v>
@@ -1810,21 +1813,21 @@
         <v>35</v>
       </c>
       <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
         <v>47</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>48</v>
-      </c>
-      <c r="N2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="L3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1916,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1964,7 +1967,7 @@
       </c>
       <c r="Y8" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D8&amp;"."</f>
-        <v>CO2p-0.05.</v>
+        <v>CO2p-0.</v>
       </c>
       <c r="Z8" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E8&amp;"."</f>
@@ -1983,7 +1986,8 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1</v>
+        <f>D8+0.05</f>
+        <v>0.05</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2034,7 +2038,7 @@
       </c>
       <c r="Y9" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D9&amp;"."</f>
-        <v>CO2p-0.1.</v>
+        <v>CO2p-0.05.</v>
       </c>
       <c r="Z9" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E9&amp;"."</f>
@@ -2053,7 +2057,8 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.15</v>
+        <f t="shared" ref="D10:D17" si="1">D9+0.05</f>
+        <v>0.1</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2068,7 +2073,7 @@
       </c>
       <c r="Y10" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D10&amp;"."</f>
-        <v>CO2p-0.15.</v>
+        <v>CO2p-0.1.</v>
       </c>
       <c r="Z10" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E10&amp;"."</f>
@@ -2087,7 +2092,8 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2</v>
+        <f t="shared" si="1"/>
+        <v>0.15000000000000002</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2102,7 +2108,7 @@
       </c>
       <c r="Y11" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D11&amp;"."</f>
-        <v>CO2p-0.2.</v>
+        <v>CO2p-0.15.</v>
       </c>
       <c r="Z11" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E11&amp;"."</f>
@@ -2121,7 +2127,8 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.25</v>
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2136,7 +2143,7 @@
       </c>
       <c r="Y12" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D12&amp;"."</f>
-        <v>CO2p-0.25.</v>
+        <v>CO2p-0.2.</v>
       </c>
       <c r="Z12" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E12&amp;"."</f>
@@ -2155,7 +2162,8 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3</v>
+        <f t="shared" si="1"/>
+        <v>0.25</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2184,7 +2192,7 @@
       </c>
       <c r="Y13" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D13&amp;"."</f>
-        <v>CO2p-0.3.</v>
+        <v>CO2p-0.25.</v>
       </c>
       <c r="Z13" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E13&amp;"."</f>
@@ -2203,7 +2211,8 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.35</v>
+        <f t="shared" si="1"/>
+        <v>0.3</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2222,7 +2231,7 @@
       </c>
       <c r="Y14" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D14&amp;"."</f>
-        <v>CO2p-0.35.</v>
+        <v>CO2p-0.3.</v>
       </c>
       <c r="Z14" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E14&amp;"."</f>
@@ -2241,7 +2250,8 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4</v>
+        <f t="shared" si="1"/>
+        <v>0.35</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2263,10 +2273,10 @@
         <v>26</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="O15" s="17" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="P15" s="18" t="s">
         <v>0</v>
@@ -2277,7 +2287,7 @@
       </c>
       <c r="Y15" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D15&amp;"."</f>
-        <v>CO2p-0.4.</v>
+        <v>CO2p-0.35.</v>
       </c>
       <c r="Z15" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E15&amp;"."</f>
@@ -2296,7 +2306,8 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2</v>
+        <f t="shared" si="1"/>
+        <v>0.39999999999999997</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2324,7 +2335,7 @@
       </c>
       <c r="Y16" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D16&amp;"."</f>
-        <v>CO2p-0.2.</v>
+        <v>CO2p-0.4.</v>
       </c>
       <c r="Z16" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E16&amp;"."</f>
@@ -2343,7 +2354,8 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2</v>
+        <f t="shared" si="1"/>
+        <v>0.44999999999999996</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2373,7 +2385,7 @@
       </c>
       <c r="Y17" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D17&amp;"."</f>
-        <v>CO2p-0.2.</v>
+        <v>CO2p-0.45.</v>
       </c>
       <c r="Z17" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E17&amp;"."</f>
@@ -2493,7 +2505,7 @@
       </c>
       <c r="D20">
         <f>D8</f>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0.9</v>
@@ -2508,7 +2520,7 @@
       </c>
       <c r="Y20" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D20&amp;"."</f>
-        <v>CO2p-0.05.</v>
+        <v>CO2p-0.</v>
       </c>
       <c r="Z20" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E20&amp;"."</f>
@@ -2527,8 +2539,8 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:D79" si="1">D9</f>
-        <v>0.1</v>
+        <f t="shared" ref="D21:D79" si="2">D9</f>
+        <v>0.05</v>
       </c>
       <c r="E21">
         <v>0.9</v>
@@ -2543,7 +2555,7 @@
       </c>
       <c r="Y21" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D21&amp;"."</f>
-        <v>CO2p-0.1.</v>
+        <v>CO2p-0.05.</v>
       </c>
       <c r="Z21" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E21&amp;"."</f>
@@ -2562,8 +2574,8 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
-        <v>0.15</v>
+        <f t="shared" si="2"/>
+        <v>0.1</v>
       </c>
       <c r="E22">
         <v>0.9</v>
@@ -2592,7 +2604,7 @@
       </c>
       <c r="Y22" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D22&amp;"."</f>
-        <v>CO2p-0.15.</v>
+        <v>CO2p-0.1.</v>
       </c>
       <c r="Z22" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E22&amp;"."</f>
@@ -2611,8 +2623,8 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
+        <f t="shared" si="2"/>
+        <v>0.15000000000000002</v>
       </c>
       <c r="E23">
         <v>0.9</v>
@@ -2632,7 +2644,7 @@
       </c>
       <c r="Y23" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D23&amp;"."</f>
-        <v>CO2p-0.2.</v>
+        <v>CO2p-0.15.</v>
       </c>
       <c r="Z23" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E23&amp;"."</f>
@@ -2651,8 +2663,8 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <f t="shared" si="2"/>
+        <v>0.2</v>
       </c>
       <c r="E24">
         <v>0.9</v>
@@ -2691,7 +2703,7 @@
       </c>
       <c r="Y24" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D24&amp;"."</f>
-        <v>CO2p-0.25.</v>
+        <v>CO2p-0.2.</v>
       </c>
       <c r="Z24" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E24&amp;"."</f>
@@ -2710,8 +2722,8 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
+        <f t="shared" si="2"/>
+        <v>0.25</v>
       </c>
       <c r="E25">
         <v>0.9</v>
@@ -2740,7 +2752,7 @@
       </c>
       <c r="Y25" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D25&amp;"."</f>
-        <v>CO2p-0.3.</v>
+        <v>CO2p-0.25.</v>
       </c>
       <c r="Z25" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E25&amp;"."</f>
@@ -2759,8 +2771,8 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
-        <v>0.35</v>
+        <f t="shared" si="2"/>
+        <v>0.3</v>
       </c>
       <c r="E26">
         <v>0.9</v>
@@ -2775,7 +2787,7 @@
       </c>
       <c r="Y26" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D26&amp;"."</f>
-        <v>CO2p-0.35.</v>
+        <v>CO2p-0.3.</v>
       </c>
       <c r="Z26" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E26&amp;"."</f>
@@ -2794,8 +2806,8 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
+        <f t="shared" si="2"/>
+        <v>0.35</v>
       </c>
       <c r="E27">
         <v>0.9</v>
@@ -2810,7 +2822,7 @@
       </c>
       <c r="Y27" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D27&amp;"."</f>
-        <v>CO2p-0.4.</v>
+        <v>CO2p-0.35.</v>
       </c>
       <c r="Z27" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E27&amp;"."</f>
@@ -2829,8 +2841,8 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
+        <f t="shared" si="2"/>
+        <v>0.39999999999999997</v>
       </c>
       <c r="E28">
         <v>0.9</v>
@@ -2845,7 +2857,7 @@
       </c>
       <c r="Y28" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D28&amp;"."</f>
-        <v>CO2p-0.2.</v>
+        <v>CO2p-0.4.</v>
       </c>
       <c r="Z28" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E28&amp;"."</f>
@@ -2864,8 +2876,8 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
+        <f t="shared" si="2"/>
+        <v>0.44999999999999996</v>
       </c>
       <c r="E29">
         <v>0.9</v>
@@ -2894,7 +2906,7 @@
       </c>
       <c r="Y29" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D29&amp;"."</f>
-        <v>CO2p-0.2.</v>
+        <v>CO2p-0.45.</v>
       </c>
       <c r="Z29" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E29&amp;"."</f>
@@ -2913,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="E30">
@@ -2951,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="E31">
@@ -3000,8 +3012,8 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>1.1000000000000001</v>
@@ -3024,7 +3036,7 @@
       </c>
       <c r="Y32" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D32&amp;"."</f>
-        <v>CO2p-0.05.</v>
+        <v>CO2p-0.</v>
       </c>
       <c r="Z32" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E32&amp;"."</f>
@@ -3043,8 +3055,8 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>0.05</v>
       </c>
       <c r="E33">
         <v>1.1000000000000001</v>
@@ -3058,7 +3070,7 @@
       </c>
       <c r="Y33" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D33&amp;"."</f>
-        <v>CO2p-0.1.</v>
+        <v>CO2p-0.05.</v>
       </c>
       <c r="Z33" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E33&amp;"."</f>
@@ -3077,8 +3089,8 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
-        <v>0.15</v>
+        <f t="shared" si="2"/>
+        <v>0.1</v>
       </c>
       <c r="E34">
         <v>1.1000000000000001</v>
@@ -3092,7 +3104,7 @@
       </c>
       <c r="Y34" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D34&amp;"."</f>
-        <v>CO2p-0.15.</v>
+        <v>CO2p-0.1.</v>
       </c>
       <c r="Z34" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E34&amp;"."</f>
@@ -3111,8 +3123,8 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
+        <f t="shared" si="2"/>
+        <v>0.15000000000000002</v>
       </c>
       <c r="E35">
         <v>1.1000000000000001</v>
@@ -3126,7 +3138,7 @@
       </c>
       <c r="Y35" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D35&amp;"."</f>
-        <v>CO2p-0.2.</v>
+        <v>CO2p-0.15.</v>
       </c>
       <c r="Z35" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E35&amp;"."</f>
@@ -3145,8 +3157,8 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <f t="shared" si="2"/>
+        <v>0.2</v>
       </c>
       <c r="E36">
         <v>1.1000000000000001</v>
@@ -3160,7 +3172,7 @@
       </c>
       <c r="Y36" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D36&amp;"."</f>
-        <v>CO2p-0.25.</v>
+        <v>CO2p-0.2.</v>
       </c>
       <c r="Z36" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E36&amp;"."</f>
@@ -3179,8 +3191,8 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
+        <f t="shared" si="2"/>
+        <v>0.25</v>
       </c>
       <c r="E37">
         <v>1.1000000000000001</v>
@@ -3194,7 +3206,7 @@
       </c>
       <c r="Y37" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D37&amp;"."</f>
-        <v>CO2p-0.3.</v>
+        <v>CO2p-0.25.</v>
       </c>
       <c r="Z37" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E37&amp;"."</f>
@@ -3213,8 +3225,8 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
-        <v>0.35</v>
+        <f t="shared" si="2"/>
+        <v>0.3</v>
       </c>
       <c r="E38">
         <v>1.1000000000000001</v>
@@ -3228,7 +3240,7 @@
       </c>
       <c r="Y38" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D38&amp;"."</f>
-        <v>CO2p-0.35.</v>
+        <v>CO2p-0.3.</v>
       </c>
       <c r="Z38" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E38&amp;"."</f>
@@ -3247,8 +3259,8 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
+        <f t="shared" si="2"/>
+        <v>0.35</v>
       </c>
       <c r="E39">
         <v>1.1000000000000001</v>
@@ -3262,7 +3274,7 @@
       </c>
       <c r="Y39" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D39&amp;"."</f>
-        <v>CO2p-0.4.</v>
+        <v>CO2p-0.35.</v>
       </c>
       <c r="Z39" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E39&amp;"."</f>
@@ -3281,8 +3293,8 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
+        <f t="shared" si="2"/>
+        <v>0.39999999999999997</v>
       </c>
       <c r="E40">
         <v>1.1000000000000001</v>
@@ -3296,7 +3308,7 @@
       </c>
       <c r="Y40" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D40&amp;"."</f>
-        <v>CO2p-0.2.</v>
+        <v>CO2p-0.4.</v>
       </c>
       <c r="Z40" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E40&amp;"."</f>
@@ -3315,8 +3327,8 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
+        <f t="shared" si="2"/>
+        <v>0.44999999999999996</v>
       </c>
       <c r="E41">
         <v>1.1000000000000001</v>
@@ -3330,7 +3342,7 @@
       </c>
       <c r="Y41" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D41&amp;"."</f>
-        <v>CO2p-0.2.</v>
+        <v>CO2p-0.45.</v>
       </c>
       <c r="Z41" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E41&amp;"."</f>
@@ -3349,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="E42">
@@ -3383,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="E43">
@@ -3417,8 +3429,8 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <f t="shared" si="1"/>
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E44">
         <f>E8</f>
@@ -3433,7 +3445,7 @@
       </c>
       <c r="Y44" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D44&amp;"."</f>
-        <v>CO2p-0.05.</v>
+        <v>CO2p-0.</v>
       </c>
       <c r="Z44" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E44&amp;"."</f>
@@ -3452,11 +3464,11 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>0.05</v>
       </c>
       <c r="E45">
-        <f t="shared" ref="E45:E79" si="2">E9</f>
+        <f t="shared" ref="E45:E79" si="3">E9</f>
         <v>1</v>
       </c>
       <c r="F45" t="s">
@@ -3468,7 +3480,7 @@
       </c>
       <c r="Y45" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D45&amp;"."</f>
-        <v>CO2p-0.1.</v>
+        <v>CO2p-0.05.</v>
       </c>
       <c r="Z45" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E45&amp;"."</f>
@@ -3487,11 +3499,11 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <f t="shared" si="1"/>
-        <v>0.15</v>
+        <f t="shared" si="2"/>
+        <v>0.1</v>
       </c>
       <c r="E46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F46" t="s">
@@ -3503,7 +3515,7 @@
       </c>
       <c r="Y46" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D46&amp;"."</f>
-        <v>CO2p-0.15.</v>
+        <v>CO2p-0.1.</v>
       </c>
       <c r="Z46" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E46&amp;"."</f>
@@ -3522,11 +3534,11 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
+        <f t="shared" si="2"/>
+        <v>0.15000000000000002</v>
       </c>
       <c r="E47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F47" t="s">
@@ -3538,7 +3550,7 @@
       </c>
       <c r="Y47" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D47&amp;"."</f>
-        <v>CO2p-0.2.</v>
+        <v>CO2p-0.15.</v>
       </c>
       <c r="Z47" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E47&amp;"."</f>
@@ -3557,11 +3569,11 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <f t="shared" si="2"/>
+        <v>0.2</v>
       </c>
       <c r="E48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F48" t="s">
@@ -3573,7 +3585,7 @@
       </c>
       <c r="Y48" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D48&amp;"."</f>
-        <v>CO2p-0.25.</v>
+        <v>CO2p-0.2.</v>
       </c>
       <c r="Z48" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E48&amp;"."</f>
@@ -3592,11 +3604,11 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
+        <f t="shared" si="2"/>
+        <v>0.25</v>
       </c>
       <c r="E49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F49" t="s">
@@ -3608,7 +3620,7 @@
       </c>
       <c r="Y49" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D49&amp;"."</f>
-        <v>CO2p-0.3.</v>
+        <v>CO2p-0.25.</v>
       </c>
       <c r="Z49" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E49&amp;"."</f>
@@ -3627,11 +3639,11 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <f t="shared" si="1"/>
-        <v>0.35</v>
+        <f t="shared" si="2"/>
+        <v>0.3</v>
       </c>
       <c r="E50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F50" t="s">
@@ -3643,7 +3655,7 @@
       </c>
       <c r="Y50" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D50&amp;"."</f>
-        <v>CO2p-0.35.</v>
+        <v>CO2p-0.3.</v>
       </c>
       <c r="Z50" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E50&amp;"."</f>
@@ -3662,11 +3674,11 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
+        <f t="shared" si="2"/>
+        <v>0.35</v>
       </c>
       <c r="E51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F51" t="s">
@@ -3678,7 +3690,7 @@
       </c>
       <c r="Y51" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D51&amp;"."</f>
-        <v>CO2p-0.4.</v>
+        <v>CO2p-0.35.</v>
       </c>
       <c r="Z51" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E51&amp;"."</f>
@@ -3697,11 +3709,11 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
+        <f t="shared" si="2"/>
+        <v>0.39999999999999997</v>
       </c>
       <c r="E52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F52" t="s">
@@ -3713,7 +3725,7 @@
       </c>
       <c r="Y52" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D52&amp;"."</f>
-        <v>CO2p-0.2.</v>
+        <v>CO2p-0.4.</v>
       </c>
       <c r="Z52" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E52&amp;"."</f>
@@ -3732,11 +3744,11 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
+        <f t="shared" si="2"/>
+        <v>0.44999999999999996</v>
       </c>
       <c r="E53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F53" t="s">
@@ -3748,7 +3760,7 @@
       </c>
       <c r="Y53" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D53&amp;"."</f>
-        <v>CO2p-0.2.</v>
+        <v>CO2p-0.45.</v>
       </c>
       <c r="Z53" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E53&amp;"."</f>
@@ -3767,11 +3779,11 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="E54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F54" t="s">
@@ -3802,11 +3814,11 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="E55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F55" t="s">
@@ -3837,11 +3849,11 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <f t="shared" si="1"/>
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="F56" t="s">
@@ -3853,7 +3865,7 @@
       </c>
       <c r="Y56" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D56&amp;"."</f>
-        <v>CO2p-0.05.</v>
+        <v>CO2p-0.</v>
       </c>
       <c r="Z56" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E56&amp;"."</f>
@@ -3872,11 +3884,11 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>0.05</v>
       </c>
       <c r="E57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="F57" t="s">
@@ -3888,7 +3900,7 @@
       </c>
       <c r="Y57" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D57&amp;"."</f>
-        <v>CO2p-0.1.</v>
+        <v>CO2p-0.05.</v>
       </c>
       <c r="Z57" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E57&amp;"."</f>
@@ -3907,11 +3919,11 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <f t="shared" si="1"/>
-        <v>0.15</v>
+        <f t="shared" si="2"/>
+        <v>0.1</v>
       </c>
       <c r="E58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="F58" t="s">
@@ -3923,7 +3935,7 @@
       </c>
       <c r="Y58" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D58&amp;"."</f>
-        <v>CO2p-0.15.</v>
+        <v>CO2p-0.1.</v>
       </c>
       <c r="Z58" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E58&amp;"."</f>
@@ -3942,11 +3954,11 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
+        <f t="shared" si="2"/>
+        <v>0.15000000000000002</v>
       </c>
       <c r="E59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="F59" t="s">
@@ -3958,7 +3970,7 @@
       </c>
       <c r="Y59" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D59&amp;"."</f>
-        <v>CO2p-0.2.</v>
+        <v>CO2p-0.15.</v>
       </c>
       <c r="Z59" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E59&amp;"."</f>
@@ -3977,11 +3989,11 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <f t="shared" si="2"/>
+        <v>0.2</v>
       </c>
       <c r="E60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="F60" t="s">
@@ -3993,7 +4005,7 @@
       </c>
       <c r="Y60" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D60&amp;"."</f>
-        <v>CO2p-0.25.</v>
+        <v>CO2p-0.2.</v>
       </c>
       <c r="Z60" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E60&amp;"."</f>
@@ -4012,11 +4024,11 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
+        <f t="shared" si="2"/>
+        <v>0.25</v>
       </c>
       <c r="E61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="F61" t="s">
@@ -4028,7 +4040,7 @@
       </c>
       <c r="Y61" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D61&amp;"."</f>
-        <v>CO2p-0.3.</v>
+        <v>CO2p-0.25.</v>
       </c>
       <c r="Z61" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E61&amp;"."</f>
@@ -4047,11 +4059,11 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <f t="shared" si="1"/>
-        <v>0.35</v>
+        <f t="shared" si="2"/>
+        <v>0.3</v>
       </c>
       <c r="E62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="F62" t="s">
@@ -4063,7 +4075,7 @@
       </c>
       <c r="Y62" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D62&amp;"."</f>
-        <v>CO2p-0.35.</v>
+        <v>CO2p-0.3.</v>
       </c>
       <c r="Z62" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E62&amp;"."</f>
@@ -4082,11 +4094,11 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
+        <f t="shared" si="2"/>
+        <v>0.35</v>
       </c>
       <c r="E63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="F63" t="s">
@@ -4098,7 +4110,7 @@
       </c>
       <c r="Y63" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D63&amp;"."</f>
-        <v>CO2p-0.4.</v>
+        <v>CO2p-0.35.</v>
       </c>
       <c r="Z63" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E63&amp;"."</f>
@@ -4117,11 +4129,11 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
+        <f t="shared" si="2"/>
+        <v>0.39999999999999997</v>
       </c>
       <c r="E64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="F64" t="s">
@@ -4133,7 +4145,7 @@
       </c>
       <c r="Y64" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D64&amp;"."</f>
-        <v>CO2p-0.2.</v>
+        <v>CO2p-0.4.</v>
       </c>
       <c r="Z64" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E64&amp;"."</f>
@@ -4152,11 +4164,11 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
+        <f t="shared" si="2"/>
+        <v>0.44999999999999996</v>
       </c>
       <c r="E65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="F65" t="s">
@@ -4168,7 +4180,7 @@
       </c>
       <c r="Y65" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D65&amp;"."</f>
-        <v>CO2p-0.2.</v>
+        <v>CO2p-0.45.</v>
       </c>
       <c r="Z65" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E65&amp;"."</f>
@@ -4187,11 +4199,11 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="E66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="F66" t="s">
@@ -4222,11 +4234,11 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="E67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="F67" t="s">
@@ -4257,11 +4269,11 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <f t="shared" si="1"/>
-        <v>0.05</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="F68" t="s">
@@ -4273,7 +4285,7 @@
       </c>
       <c r="Y68" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D68&amp;"."</f>
-        <v>CO2p-0.05.</v>
+        <v>CO2p-0.</v>
       </c>
       <c r="Z68" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E68&amp;"."</f>
@@ -4292,11 +4304,11 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>0.05</v>
       </c>
       <c r="E69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="F69" t="s">
@@ -4308,7 +4320,7 @@
       </c>
       <c r="Y69" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D69&amp;"."</f>
-        <v>CO2p-0.1.</v>
+        <v>CO2p-0.05.</v>
       </c>
       <c r="Z69" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E69&amp;"."</f>
@@ -4327,11 +4339,11 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <f t="shared" si="1"/>
-        <v>0.15</v>
+        <f t="shared" si="2"/>
+        <v>0.1</v>
       </c>
       <c r="E70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="F70" t="s">
@@ -4343,7 +4355,7 @@
       </c>
       <c r="Y70" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D70&amp;"."</f>
-        <v>CO2p-0.15.</v>
+        <v>CO2p-0.1.</v>
       </c>
       <c r="Z70" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E70&amp;"."</f>
@@ -4362,11 +4374,11 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
+        <f t="shared" si="2"/>
+        <v>0.15000000000000002</v>
       </c>
       <c r="E71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="F71" t="s">
@@ -4378,7 +4390,7 @@
       </c>
       <c r="Y71" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D71&amp;"."</f>
-        <v>CO2p-0.2.</v>
+        <v>CO2p-0.15.</v>
       </c>
       <c r="Z71" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E71&amp;"."</f>
@@ -4397,11 +4409,11 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
+        <f t="shared" si="2"/>
+        <v>0.2</v>
       </c>
       <c r="E72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="F72" t="s">
@@ -4413,7 +4425,7 @@
       </c>
       <c r="Y72" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D72&amp;"."</f>
-        <v>CO2p-0.25.</v>
+        <v>CO2p-0.2.</v>
       </c>
       <c r="Z72" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E72&amp;"."</f>
@@ -4432,11 +4444,11 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
+        <f t="shared" si="2"/>
+        <v>0.25</v>
       </c>
       <c r="E73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="F73" t="s">
@@ -4448,7 +4460,7 @@
       </c>
       <c r="Y73" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D73&amp;"."</f>
-        <v>CO2p-0.3.</v>
+        <v>CO2p-0.25.</v>
       </c>
       <c r="Z73" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E73&amp;"."</f>
@@ -4467,11 +4479,11 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <f t="shared" si="1"/>
-        <v>0.35</v>
+        <f t="shared" si="2"/>
+        <v>0.3</v>
       </c>
       <c r="E74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="F74" t="s">
@@ -4483,7 +4495,7 @@
       </c>
       <c r="Y74" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D74&amp;"."</f>
-        <v>CO2p-0.35.</v>
+        <v>CO2p-0.3.</v>
       </c>
       <c r="Z74" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E74&amp;"."</f>
@@ -4502,11 +4514,11 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
+        <f t="shared" si="2"/>
+        <v>0.35</v>
       </c>
       <c r="E75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="F75" t="s">
@@ -4518,7 +4530,7 @@
       </c>
       <c r="Y75" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D75&amp;"."</f>
-        <v>CO2p-0.4.</v>
+        <v>CO2p-0.35.</v>
       </c>
       <c r="Z75" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E75&amp;"."</f>
@@ -4537,11 +4549,11 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
+        <f t="shared" si="2"/>
+        <v>0.39999999999999997</v>
       </c>
       <c r="E76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="F76" t="s">
@@ -4553,7 +4565,7 @@
       </c>
       <c r="Y76" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D76&amp;"."</f>
-        <v>CO2p-0.2.</v>
+        <v>CO2p-0.4.</v>
       </c>
       <c r="Z76" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E76&amp;"."</f>
@@ -4572,11 +4584,11 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
+        <f t="shared" si="2"/>
+        <v>0.44999999999999996</v>
       </c>
       <c r="E77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="F77" t="s">
@@ -4588,7 +4600,7 @@
       </c>
       <c r="Y77" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!D$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!D77&amp;"."</f>
-        <v>CO2p-0.2.</v>
+        <v>CO2p-0.45.</v>
       </c>
       <c r="Z77" s="24" t="str">
         <f>'RPS-CO2p_GasP-Nuc'!E$7&amp;"-"&amp;'RPS-CO2p_GasP-Nuc'!E77&amp;"."</f>
@@ -4607,11 +4619,11 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="E78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="F78" t="s">
@@ -4642,11 +4654,11 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="E79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="F79" t="s">
